--- a/Marketing.Mvc/DadosApp/Relatorio/Relatório de Envio de Extratos de Incidência_setembro2025.xlsx
+++ b/Marketing.Mvc/DadosApp/Relatorio/Relatório de Envio de Extratos de Incidência_setembro2025.xlsx
@@ -116,6 +116,9 @@
   </x:si>
   <x:si>
     <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 08:00:00 PDT. The current time is Tuesday, 28-Oct-25 09:53:12 PDT.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Disparado</x:t>
   </x:si>
   <x:si>
     <x:t>KONI RIO SUL</x:t>
@@ -1030,7 +1033,7 @@
   <x:dimension ref="A1:AA892"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="B12" sqref="B12 B18"/>
+      <x:selection activeCell="B12" sqref="B12 B36"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.710625" defaultRowHeight="15" customHeight="1"/>
@@ -1220,16 +1223,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C9" s="35" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D9" s="36" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F9" s="37" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G9" s="38" t="s">
         <x:v>29</x:v>
@@ -1263,19 +1266,19 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C10" s="35" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D10" s="36" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E10" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F10" s="37" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G10" s="38" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H10" s="39"/>
       <x:c r="I10" s="39"/>
@@ -1306,16 +1309,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C11" s="35" t="s">
-        <x:v>33</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="36" t="s">
-        <x:v>34</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E11" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F11" s="37" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G11" s="38" t="s">
         <x:v>29</x:v>
@@ -1349,19 +1352,19 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C12" s="35" t="s">
-        <x:v>33</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D12" s="36" t="s">
-        <x:v>34</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E12" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F12" s="37" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G12" s="38" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H12" s="39"/>
       <x:c r="I12" s="39"/>
@@ -1385,13 +1388,27 @@
       <x:c r="AA12" s="39"/>
     </x:row>
     <x:row r="13" spans="1:27" ht="15" customHeight="1">
-      <x:c r="A13" s="33"/>
-      <x:c r="B13" s="34"/>
-      <x:c r="C13" s="35"/>
-      <x:c r="D13" s="36"/>
-      <x:c r="E13" s="37"/>
-      <x:c r="F13" s="37"/>
-      <x:c r="G13" s="38"/>
+      <x:c r="A13" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B13" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C13" s="35" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D13" s="36" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E13" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F13" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G13" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="H13" s="39"/>
       <x:c r="I13" s="39"/>
       <x:c r="J13" s="39"/>
@@ -1413,14 +1430,28 @@
       <x:c r="Z13" s="39"/>
       <x:c r="AA13" s="39"/>
     </x:row>
-    <x:row r="14" spans="1:27">
-      <x:c r="A14" s="33"/>
-      <x:c r="B14" s="34"/>
-      <x:c r="C14" s="35"/>
-      <x:c r="D14" s="36"/>
-      <x:c r="E14" s="37"/>
-      <x:c r="F14" s="37"/>
-      <x:c r="G14" s="38"/>
+    <x:row r="14" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A14" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B14" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C14" s="35" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D14" s="36" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E14" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F14" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G14" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="H14" s="39"/>
       <x:c r="I14" s="39"/>
       <x:c r="J14" s="39"/>
@@ -1442,174 +1473,848 @@
       <x:c r="Z14" s="39"/>
       <x:c r="AA14" s="39"/>
     </x:row>
-    <x:row r="15" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A15" s="17"/>
-      <x:c r="B15" s="18"/>
-      <x:c r="C15" s="19"/>
-      <x:c r="D15" s="20"/>
-      <x:c r="E15" s="19"/>
-      <x:c r="F15" s="19"/>
-      <x:c r="G15" s="21"/>
-    </x:row>
-    <x:row r="16" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A16" s="8"/>
-      <x:c r="B16" s="8"/>
-      <x:c r="C16" s="8"/>
-      <x:c r="D16" s="9"/>
-      <x:c r="E16" s="8"/>
-      <x:c r="F16" s="8"/>
-      <x:c r="G16" s="22"/>
-    </x:row>
-    <x:row r="17" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A17" s="39"/>
-      <x:c r="B17" s="39"/>
-      <x:c r="C17" s="39"/>
-      <x:c r="D17" s="40"/>
-      <x:c r="E17" s="39"/>
-      <x:c r="F17" s="39"/>
-      <x:c r="G17" s="23"/>
-    </x:row>
-    <x:row r="18" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A18" s="24" t="s">
+    <x:row r="15" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A15" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B15" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C15" s="35" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D15" s="36" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E15" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F15" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G15" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H15" s="39"/>
+      <x:c r="I15" s="39"/>
+      <x:c r="J15" s="39"/>
+      <x:c r="K15" s="39"/>
+      <x:c r="L15" s="39"/>
+      <x:c r="M15" s="39"/>
+      <x:c r="N15" s="39"/>
+      <x:c r="O15" s="39"/>
+      <x:c r="P15" s="39"/>
+      <x:c r="Q15" s="39"/>
+      <x:c r="R15" s="39"/>
+      <x:c r="S15" s="39"/>
+      <x:c r="T15" s="39"/>
+      <x:c r="U15" s="39"/>
+      <x:c r="V15" s="39"/>
+      <x:c r="W15" s="39"/>
+      <x:c r="X15" s="39"/>
+      <x:c r="Y15" s="39"/>
+      <x:c r="Z15" s="39"/>
+      <x:c r="AA15" s="39"/>
+    </x:row>
+    <x:row r="16" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A16" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B16" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C16" s="35" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D16" s="36" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E16" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F16" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G16" s="38" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H16" s="39"/>
+      <x:c r="I16" s="39"/>
+      <x:c r="J16" s="39"/>
+      <x:c r="K16" s="39"/>
+      <x:c r="L16" s="39"/>
+      <x:c r="M16" s="39"/>
+      <x:c r="N16" s="39"/>
+      <x:c r="O16" s="39"/>
+      <x:c r="P16" s="39"/>
+      <x:c r="Q16" s="39"/>
+      <x:c r="R16" s="39"/>
+      <x:c r="S16" s="39"/>
+      <x:c r="T16" s="39"/>
+      <x:c r="U16" s="39"/>
+      <x:c r="V16" s="39"/>
+      <x:c r="W16" s="39"/>
+      <x:c r="X16" s="39"/>
+      <x:c r="Y16" s="39"/>
+      <x:c r="Z16" s="39"/>
+      <x:c r="AA16" s="39"/>
+    </x:row>
+    <x:row r="17" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A17" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B17" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C17" s="35" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D17" s="36" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E17" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F17" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G17" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H17" s="39"/>
+      <x:c r="I17" s="39"/>
+      <x:c r="J17" s="39"/>
+      <x:c r="K17" s="39"/>
+      <x:c r="L17" s="39"/>
+      <x:c r="M17" s="39"/>
+      <x:c r="N17" s="39"/>
+      <x:c r="O17" s="39"/>
+      <x:c r="P17" s="39"/>
+      <x:c r="Q17" s="39"/>
+      <x:c r="R17" s="39"/>
+      <x:c r="S17" s="39"/>
+      <x:c r="T17" s="39"/>
+      <x:c r="U17" s="39"/>
+      <x:c r="V17" s="39"/>
+      <x:c r="W17" s="39"/>
+      <x:c r="X17" s="39"/>
+      <x:c r="Y17" s="39"/>
+      <x:c r="Z17" s="39"/>
+      <x:c r="AA17" s="39"/>
+    </x:row>
+    <x:row r="18" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A18" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B18" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C18" s="35" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D18" s="36" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E18" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F18" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G18" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H18" s="39"/>
+      <x:c r="I18" s="39"/>
+      <x:c r="J18" s="39"/>
+      <x:c r="K18" s="39"/>
+      <x:c r="L18" s="39"/>
+      <x:c r="M18" s="39"/>
+      <x:c r="N18" s="39"/>
+      <x:c r="O18" s="39"/>
+      <x:c r="P18" s="39"/>
+      <x:c r="Q18" s="39"/>
+      <x:c r="R18" s="39"/>
+      <x:c r="S18" s="39"/>
+      <x:c r="T18" s="39"/>
+      <x:c r="U18" s="39"/>
+      <x:c r="V18" s="39"/>
+      <x:c r="W18" s="39"/>
+      <x:c r="X18" s="39"/>
+      <x:c r="Y18" s="39"/>
+      <x:c r="Z18" s="39"/>
+      <x:c r="AA18" s="39"/>
+    </x:row>
+    <x:row r="19" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A19" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B19" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C19" s="35" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D19" s="36" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E19" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F19" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G19" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H19" s="39"/>
+      <x:c r="I19" s="39"/>
+      <x:c r="J19" s="39"/>
+      <x:c r="K19" s="39"/>
+      <x:c r="L19" s="39"/>
+      <x:c r="M19" s="39"/>
+      <x:c r="N19" s="39"/>
+      <x:c r="O19" s="39"/>
+      <x:c r="P19" s="39"/>
+      <x:c r="Q19" s="39"/>
+      <x:c r="R19" s="39"/>
+      <x:c r="S19" s="39"/>
+      <x:c r="T19" s="39"/>
+      <x:c r="U19" s="39"/>
+      <x:c r="V19" s="39"/>
+      <x:c r="W19" s="39"/>
+      <x:c r="X19" s="39"/>
+      <x:c r="Y19" s="39"/>
+      <x:c r="Z19" s="39"/>
+      <x:c r="AA19" s="39"/>
+    </x:row>
+    <x:row r="20" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A20" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B20" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C20" s="35" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D20" s="36" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E20" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F20" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G20" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H20" s="39"/>
+      <x:c r="I20" s="39"/>
+      <x:c r="J20" s="39"/>
+      <x:c r="K20" s="39"/>
+      <x:c r="L20" s="39"/>
+      <x:c r="M20" s="39"/>
+      <x:c r="N20" s="39"/>
+      <x:c r="O20" s="39"/>
+      <x:c r="P20" s="39"/>
+      <x:c r="Q20" s="39"/>
+      <x:c r="R20" s="39"/>
+      <x:c r="S20" s="39"/>
+      <x:c r="T20" s="39"/>
+      <x:c r="U20" s="39"/>
+      <x:c r="V20" s="39"/>
+      <x:c r="W20" s="39"/>
+      <x:c r="X20" s="39"/>
+      <x:c r="Y20" s="39"/>
+      <x:c r="Z20" s="39"/>
+      <x:c r="AA20" s="39"/>
+    </x:row>
+    <x:row r="21" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A21" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B21" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C21" s="35" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D21" s="36" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E21" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F21" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G21" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H21" s="39"/>
+      <x:c r="I21" s="39"/>
+      <x:c r="J21" s="39"/>
+      <x:c r="K21" s="39"/>
+      <x:c r="L21" s="39"/>
+      <x:c r="M21" s="39"/>
+      <x:c r="N21" s="39"/>
+      <x:c r="O21" s="39"/>
+      <x:c r="P21" s="39"/>
+      <x:c r="Q21" s="39"/>
+      <x:c r="R21" s="39"/>
+      <x:c r="S21" s="39"/>
+      <x:c r="T21" s="39"/>
+      <x:c r="U21" s="39"/>
+      <x:c r="V21" s="39"/>
+      <x:c r="W21" s="39"/>
+      <x:c r="X21" s="39"/>
+      <x:c r="Y21" s="39"/>
+      <x:c r="Z21" s="39"/>
+      <x:c r="AA21" s="39"/>
+    </x:row>
+    <x:row r="22" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A22" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B22" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C22" s="35" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D22" s="36" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E22" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F22" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G22" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H22" s="39"/>
+      <x:c r="I22" s="39"/>
+      <x:c r="J22" s="39"/>
+      <x:c r="K22" s="39"/>
+      <x:c r="L22" s="39"/>
+      <x:c r="M22" s="39"/>
+      <x:c r="N22" s="39"/>
+      <x:c r="O22" s="39"/>
+      <x:c r="P22" s="39"/>
+      <x:c r="Q22" s="39"/>
+      <x:c r="R22" s="39"/>
+      <x:c r="S22" s="39"/>
+      <x:c r="T22" s="39"/>
+      <x:c r="U22" s="39"/>
+      <x:c r="V22" s="39"/>
+      <x:c r="W22" s="39"/>
+      <x:c r="X22" s="39"/>
+      <x:c r="Y22" s="39"/>
+      <x:c r="Z22" s="39"/>
+      <x:c r="AA22" s="39"/>
+    </x:row>
+    <x:row r="23" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A23" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B23" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C23" s="35" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D23" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E23" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F23" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G23" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H23" s="39"/>
+      <x:c r="I23" s="39"/>
+      <x:c r="J23" s="39"/>
+      <x:c r="K23" s="39"/>
+      <x:c r="L23" s="39"/>
+      <x:c r="M23" s="39"/>
+      <x:c r="N23" s="39"/>
+      <x:c r="O23" s="39"/>
+      <x:c r="P23" s="39"/>
+      <x:c r="Q23" s="39"/>
+      <x:c r="R23" s="39"/>
+      <x:c r="S23" s="39"/>
+      <x:c r="T23" s="39"/>
+      <x:c r="U23" s="39"/>
+      <x:c r="V23" s="39"/>
+      <x:c r="W23" s="39"/>
+      <x:c r="X23" s="39"/>
+      <x:c r="Y23" s="39"/>
+      <x:c r="Z23" s="39"/>
+      <x:c r="AA23" s="39"/>
+    </x:row>
+    <x:row r="24" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A24" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B24" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C24" s="35" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D24" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E24" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F24" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G24" s="38" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H24" s="39"/>
+      <x:c r="I24" s="39"/>
+      <x:c r="J24" s="39"/>
+      <x:c r="K24" s="39"/>
+      <x:c r="L24" s="39"/>
+      <x:c r="M24" s="39"/>
+      <x:c r="N24" s="39"/>
+      <x:c r="O24" s="39"/>
+      <x:c r="P24" s="39"/>
+      <x:c r="Q24" s="39"/>
+      <x:c r="R24" s="39"/>
+      <x:c r="S24" s="39"/>
+      <x:c r="T24" s="39"/>
+      <x:c r="U24" s="39"/>
+      <x:c r="V24" s="39"/>
+      <x:c r="W24" s="39"/>
+      <x:c r="X24" s="39"/>
+      <x:c r="Y24" s="39"/>
+      <x:c r="Z24" s="39"/>
+      <x:c r="AA24" s="39"/>
+    </x:row>
+    <x:row r="25" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A25" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B25" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C25" s="35" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D25" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E25" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F25" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G25" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H25" s="39"/>
+      <x:c r="I25" s="39"/>
+      <x:c r="J25" s="39"/>
+      <x:c r="K25" s="39"/>
+      <x:c r="L25" s="39"/>
+      <x:c r="M25" s="39"/>
+      <x:c r="N25" s="39"/>
+      <x:c r="O25" s="39"/>
+      <x:c r="P25" s="39"/>
+      <x:c r="Q25" s="39"/>
+      <x:c r="R25" s="39"/>
+      <x:c r="S25" s="39"/>
+      <x:c r="T25" s="39"/>
+      <x:c r="U25" s="39"/>
+      <x:c r="V25" s="39"/>
+      <x:c r="W25" s="39"/>
+      <x:c r="X25" s="39"/>
+      <x:c r="Y25" s="39"/>
+      <x:c r="Z25" s="39"/>
+      <x:c r="AA25" s="39"/>
+    </x:row>
+    <x:row r="26" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A26" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B26" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C26" s="35" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D26" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E26" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F26" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G26" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H26" s="39"/>
+      <x:c r="I26" s="39"/>
+      <x:c r="J26" s="39"/>
+      <x:c r="K26" s="39"/>
+      <x:c r="L26" s="39"/>
+      <x:c r="M26" s="39"/>
+      <x:c r="N26" s="39"/>
+      <x:c r="O26" s="39"/>
+      <x:c r="P26" s="39"/>
+      <x:c r="Q26" s="39"/>
+      <x:c r="R26" s="39"/>
+      <x:c r="S26" s="39"/>
+      <x:c r="T26" s="39"/>
+      <x:c r="U26" s="39"/>
+      <x:c r="V26" s="39"/>
+      <x:c r="W26" s="39"/>
+      <x:c r="X26" s="39"/>
+      <x:c r="Y26" s="39"/>
+      <x:c r="Z26" s="39"/>
+      <x:c r="AA26" s="39"/>
+    </x:row>
+    <x:row r="27" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A27" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B27" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C27" s="35" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D27" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E27" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F27" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G27" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H27" s="39"/>
+      <x:c r="I27" s="39"/>
+      <x:c r="J27" s="39"/>
+      <x:c r="K27" s="39"/>
+      <x:c r="L27" s="39"/>
+      <x:c r="M27" s="39"/>
+      <x:c r="N27" s="39"/>
+      <x:c r="O27" s="39"/>
+      <x:c r="P27" s="39"/>
+      <x:c r="Q27" s="39"/>
+      <x:c r="R27" s="39"/>
+      <x:c r="S27" s="39"/>
+      <x:c r="T27" s="39"/>
+      <x:c r="U27" s="39"/>
+      <x:c r="V27" s="39"/>
+      <x:c r="W27" s="39"/>
+      <x:c r="X27" s="39"/>
+      <x:c r="Y27" s="39"/>
+      <x:c r="Z27" s="39"/>
+      <x:c r="AA27" s="39"/>
+    </x:row>
+    <x:row r="28" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A28" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B28" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C28" s="35" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D28" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E28" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F28" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G28" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H28" s="39"/>
+      <x:c r="I28" s="39"/>
+      <x:c r="J28" s="39"/>
+      <x:c r="K28" s="39"/>
+      <x:c r="L28" s="39"/>
+      <x:c r="M28" s="39"/>
+      <x:c r="N28" s="39"/>
+      <x:c r="O28" s="39"/>
+      <x:c r="P28" s="39"/>
+      <x:c r="Q28" s="39"/>
+      <x:c r="R28" s="39"/>
+      <x:c r="S28" s="39"/>
+      <x:c r="T28" s="39"/>
+      <x:c r="U28" s="39"/>
+      <x:c r="V28" s="39"/>
+      <x:c r="W28" s="39"/>
+      <x:c r="X28" s="39"/>
+      <x:c r="Y28" s="39"/>
+      <x:c r="Z28" s="39"/>
+      <x:c r="AA28" s="39"/>
+    </x:row>
+    <x:row r="29" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A29" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B29" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C29" s="35" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D29" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E29" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F29" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G29" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H29" s="39"/>
+      <x:c r="I29" s="39"/>
+      <x:c r="J29" s="39"/>
+      <x:c r="K29" s="39"/>
+      <x:c r="L29" s="39"/>
+      <x:c r="M29" s="39"/>
+      <x:c r="N29" s="39"/>
+      <x:c r="O29" s="39"/>
+      <x:c r="P29" s="39"/>
+      <x:c r="Q29" s="39"/>
+      <x:c r="R29" s="39"/>
+      <x:c r="S29" s="39"/>
+      <x:c r="T29" s="39"/>
+      <x:c r="U29" s="39"/>
+      <x:c r="V29" s="39"/>
+      <x:c r="W29" s="39"/>
+      <x:c r="X29" s="39"/>
+      <x:c r="Y29" s="39"/>
+      <x:c r="Z29" s="39"/>
+      <x:c r="AA29" s="39"/>
+    </x:row>
+    <x:row r="30" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A30" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B30" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C30" s="35" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D30" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E30" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F30" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G30" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H30" s="39"/>
+      <x:c r="I30" s="39"/>
+      <x:c r="J30" s="39"/>
+      <x:c r="K30" s="39"/>
+      <x:c r="L30" s="39"/>
+      <x:c r="M30" s="39"/>
+      <x:c r="N30" s="39"/>
+      <x:c r="O30" s="39"/>
+      <x:c r="P30" s="39"/>
+      <x:c r="Q30" s="39"/>
+      <x:c r="R30" s="39"/>
+      <x:c r="S30" s="39"/>
+      <x:c r="T30" s="39"/>
+      <x:c r="U30" s="39"/>
+      <x:c r="V30" s="39"/>
+      <x:c r="W30" s="39"/>
+      <x:c r="X30" s="39"/>
+      <x:c r="Y30" s="39"/>
+      <x:c r="Z30" s="39"/>
+      <x:c r="AA30" s="39"/>
+    </x:row>
+    <x:row r="31" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A31" s="33"/>
+      <x:c r="B31" s="34"/>
+      <x:c r="C31" s="35"/>
+      <x:c r="D31" s="36"/>
+      <x:c r="E31" s="37"/>
+      <x:c r="F31" s="37"/>
+      <x:c r="G31" s="38"/>
+      <x:c r="H31" s="39"/>
+      <x:c r="I31" s="39"/>
+      <x:c r="J31" s="39"/>
+      <x:c r="K31" s="39"/>
+      <x:c r="L31" s="39"/>
+      <x:c r="M31" s="39"/>
+      <x:c r="N31" s="39"/>
+      <x:c r="O31" s="39"/>
+      <x:c r="P31" s="39"/>
+      <x:c r="Q31" s="39"/>
+      <x:c r="R31" s="39"/>
+      <x:c r="S31" s="39"/>
+      <x:c r="T31" s="39"/>
+      <x:c r="U31" s="39"/>
+      <x:c r="V31" s="39"/>
+      <x:c r="W31" s="39"/>
+      <x:c r="X31" s="39"/>
+      <x:c r="Y31" s="39"/>
+      <x:c r="Z31" s="39"/>
+      <x:c r="AA31" s="39"/>
+    </x:row>
+    <x:row r="32" spans="1:27">
+      <x:c r="A32" s="33"/>
+      <x:c r="B32" s="34"/>
+      <x:c r="C32" s="35"/>
+      <x:c r="D32" s="36"/>
+      <x:c r="E32" s="37"/>
+      <x:c r="F32" s="37"/>
+      <x:c r="G32" s="38"/>
+      <x:c r="H32" s="39"/>
+      <x:c r="I32" s="39"/>
+      <x:c r="J32" s="39"/>
+      <x:c r="K32" s="39"/>
+      <x:c r="L32" s="39"/>
+      <x:c r="M32" s="39"/>
+      <x:c r="N32" s="39"/>
+      <x:c r="O32" s="39"/>
+      <x:c r="P32" s="39"/>
+      <x:c r="Q32" s="39"/>
+      <x:c r="R32" s="39"/>
+      <x:c r="S32" s="39"/>
+      <x:c r="T32" s="39"/>
+      <x:c r="U32" s="39"/>
+      <x:c r="V32" s="39"/>
+      <x:c r="W32" s="39"/>
+      <x:c r="X32" s="39"/>
+      <x:c r="Y32" s="39"/>
+      <x:c r="Z32" s="39"/>
+      <x:c r="AA32" s="39"/>
+    </x:row>
+    <x:row r="33" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A33" s="17"/>
+      <x:c r="B33" s="18"/>
+      <x:c r="C33" s="19"/>
+      <x:c r="D33" s="20"/>
+      <x:c r="E33" s="19"/>
+      <x:c r="F33" s="19"/>
+      <x:c r="G33" s="21"/>
+    </x:row>
+    <x:row r="34" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A34" s="8"/>
+      <x:c r="B34" s="8"/>
+      <x:c r="C34" s="8"/>
+      <x:c r="D34" s="9"/>
+      <x:c r="E34" s="8"/>
+      <x:c r="F34" s="8"/>
+      <x:c r="G34" s="22"/>
+    </x:row>
+    <x:row r="35" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A35" s="39"/>
+      <x:c r="B35" s="39"/>
+      <x:c r="C35" s="39"/>
+      <x:c r="D35" s="40"/>
+      <x:c r="E35" s="39"/>
+      <x:c r="F35" s="39"/>
+      <x:c r="G35" s="23"/>
+    </x:row>
+    <x:row r="36" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A36" s="24" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B18" s="24">
+      <x:c r="B36" s="24">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C18" s="25" t="s">
+      <x:c r="C36" s="25" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D18" s="26"/>
-      <x:c r="E18" s="27"/>
-      <x:c r="F18" s="56"/>
-      <x:c r="G18" s="23"/>
-    </x:row>
-    <x:row r="19" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A19" s="24" t="s">
+      <x:c r="D36" s="26"/>
+      <x:c r="E36" s="27"/>
+      <x:c r="F36" s="56"/>
+      <x:c r="G36" s="23"/>
+    </x:row>
+    <x:row r="37" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A37" s="24" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B19" s="24">
+      <x:c r="B37" s="24">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C19" s="25" t="s">
+      <x:c r="C37" s="25" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D19" s="28"/>
-      <x:c r="E19" s="27"/>
-      <x:c r="F19" s="56"/>
-      <x:c r="G19" s="23"/>
-    </x:row>
-    <x:row r="20" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A20" s="24" t="s">
+      <x:c r="D37" s="28"/>
+      <x:c r="E37" s="27"/>
+      <x:c r="F37" s="56"/>
+      <x:c r="G37" s="23"/>
+    </x:row>
+    <x:row r="38" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A38" s="24" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B20" s="24">
+      <x:c r="B38" s="24">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C20" s="29" t="s">
+      <x:c r="C38" s="29" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D20" s="30"/>
-      <x:c r="E20" s="27"/>
-      <x:c r="F20" s="56"/>
-      <x:c r="G20" s="23"/>
-    </x:row>
-    <x:row r="21" spans="1:27" ht="112.15" customHeight="1">
-      <x:c r="A21" s="24" t="s">
+      <x:c r="D38" s="30"/>
+      <x:c r="E38" s="27"/>
+      <x:c r="F38" s="56"/>
+      <x:c r="G38" s="23"/>
+    </x:row>
+    <x:row r="39" spans="1:27" ht="112.15" customHeight="1">
+      <x:c r="A39" s="24" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B21" s="24">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C21" s="29" t="s">
+      <x:c r="B39" s="24">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C39" s="29" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D21" s="30"/>
-      <x:c r="E21" s="27"/>
-      <x:c r="F21" s="56"/>
-      <x:c r="G21" s="23"/>
-    </x:row>
-    <x:row r="22" spans="1:27" ht="37.9" customHeight="1">
-      <x:c r="A22" s="57"/>
-      <x:c r="B22" s="24"/>
-      <x:c r="C22" s="29" t="s">
+      <x:c r="D39" s="30"/>
+      <x:c r="E39" s="27"/>
+      <x:c r="F39" s="56"/>
+      <x:c r="G39" s="23"/>
+    </x:row>
+    <x:row r="40" spans="1:27" ht="37.9" customHeight="1">
+      <x:c r="A40" s="57"/>
+      <x:c r="B40" s="24"/>
+      <x:c r="C40" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D22" s="30"/>
-      <x:c r="E22" s="27"/>
-      <x:c r="F22" s="56"/>
-      <x:c r="G22" s="23"/>
-    </x:row>
-    <x:row r="23" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D23" s="41"/>
-      <x:c r="G23" s="23"/>
-    </x:row>
-    <x:row r="24" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D24" s="41"/>
-      <x:c r="G24" s="23"/>
-    </x:row>
-    <x:row r="25" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D25" s="41"/>
-      <x:c r="G25" s="23"/>
-    </x:row>
-    <x:row r="26" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D26" s="41"/>
-      <x:c r="G26" s="23"/>
-    </x:row>
-    <x:row r="27" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D27" s="41"/>
-      <x:c r="G27" s="23"/>
-    </x:row>
-    <x:row r="28" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D28" s="41"/>
-      <x:c r="G28" s="23"/>
-    </x:row>
-    <x:row r="29" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D29" s="41"/>
-      <x:c r="G29" s="23"/>
-    </x:row>
-    <x:row r="30" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D30" s="41"/>
-      <x:c r="G30" s="23"/>
-    </x:row>
-    <x:row r="31" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D31" s="41"/>
-      <x:c r="G31" s="23"/>
-    </x:row>
-    <x:row r="32" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D32" s="41"/>
-      <x:c r="G32" s="23"/>
-    </x:row>
-    <x:row r="33" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D33" s="41"/>
-      <x:c r="G33" s="23"/>
-    </x:row>
-    <x:row r="34" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D34" s="41"/>
-      <x:c r="G34" s="23"/>
-    </x:row>
-    <x:row r="35" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D35" s="41"/>
-      <x:c r="G35" s="23"/>
-    </x:row>
-    <x:row r="36" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D36" s="41"/>
-      <x:c r="G36" s="23"/>
-    </x:row>
-    <x:row r="37" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D37" s="41"/>
-      <x:c r="G37" s="23"/>
-    </x:row>
-    <x:row r="38" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D38" s="41"/>
-      <x:c r="G38" s="23"/>
-    </x:row>
-    <x:row r="39" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D39" s="41"/>
-      <x:c r="G39" s="23"/>
-    </x:row>
-    <x:row r="40" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D40" s="41"/>
+      <x:c r="D40" s="30"/>
+      <x:c r="E40" s="27"/>
+      <x:c r="F40" s="56"/>
       <x:c r="G40" s="23"/>
     </x:row>
     <x:row r="41" spans="1:27" ht="15.75" customHeight="1">
@@ -2342,57 +3047,75 @@
     </x:row>
     <x:row r="223" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D223" s="41"/>
+      <x:c r="G223" s="23"/>
     </x:row>
     <x:row r="224" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D224" s="41"/>
+      <x:c r="G224" s="23"/>
     </x:row>
     <x:row r="225" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D225" s="41"/>
+      <x:c r="G225" s="23"/>
     </x:row>
     <x:row r="226" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D226" s="41"/>
+      <x:c r="G226" s="23"/>
     </x:row>
     <x:row r="227" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D227" s="41"/>
+      <x:c r="G227" s="23"/>
     </x:row>
     <x:row r="228" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D228" s="41"/>
+      <x:c r="G228" s="23"/>
     </x:row>
     <x:row r="229" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D229" s="41"/>
+      <x:c r="G229" s="23"/>
     </x:row>
     <x:row r="230" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D230" s="41"/>
+      <x:c r="G230" s="23"/>
     </x:row>
     <x:row r="231" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D231" s="41"/>
+      <x:c r="G231" s="23"/>
     </x:row>
     <x:row r="232" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D232" s="41"/>
+      <x:c r="G232" s="23"/>
     </x:row>
     <x:row r="233" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D233" s="41"/>
+      <x:c r="G233" s="23"/>
     </x:row>
     <x:row r="234" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D234" s="41"/>
+      <x:c r="G234" s="23"/>
     </x:row>
     <x:row r="235" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D235" s="41"/>
+      <x:c r="G235" s="23"/>
     </x:row>
     <x:row r="236" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D236" s="41"/>
+      <x:c r="G236" s="23"/>
     </x:row>
     <x:row r="237" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D237" s="41"/>
+      <x:c r="G237" s="23"/>
     </x:row>
     <x:row r="238" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D238" s="41"/>
+      <x:c r="G238" s="23"/>
     </x:row>
     <x:row r="239" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D239" s="41"/>
+      <x:c r="G239" s="23"/>
     </x:row>
     <x:row r="240" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D240" s="41"/>
+      <x:c r="G240" s="23"/>
     </x:row>
     <x:row r="241" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D241" s="41"/>
@@ -4367,6 +5090,60 @@
     </x:row>
     <x:row r="898" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D898" s="41"/>
+    </x:row>
+    <x:row r="899" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D899" s="41"/>
+    </x:row>
+    <x:row r="900" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D900" s="41"/>
+    </x:row>
+    <x:row r="901" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D901" s="41"/>
+    </x:row>
+    <x:row r="902" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D902" s="41"/>
+    </x:row>
+    <x:row r="903" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D903" s="41"/>
+    </x:row>
+    <x:row r="904" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D904" s="41"/>
+    </x:row>
+    <x:row r="905" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D905" s="41"/>
+    </x:row>
+    <x:row r="906" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D906" s="41"/>
+    </x:row>
+    <x:row r="907" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D907" s="41"/>
+    </x:row>
+    <x:row r="908" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D908" s="41"/>
+    </x:row>
+    <x:row r="909" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D909" s="41"/>
+    </x:row>
+    <x:row r="910" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D910" s="41"/>
+    </x:row>
+    <x:row r="911" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D911" s="41"/>
+    </x:row>
+    <x:row r="912" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D912" s="41"/>
+    </x:row>
+    <x:row r="913" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D913" s="41"/>
+    </x:row>
+    <x:row r="914" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D914" s="41"/>
+    </x:row>
+    <x:row r="915" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D915" s="41"/>
+    </x:row>
+    <x:row r="916" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D916" s="41"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -4376,7 +5153,7 @@
     <x:mergeCell ref="B3:F3"/>
     <x:mergeCell ref="B4:F4"/>
   </x:mergeCells>
-  <x:conditionalFormatting sqref="D7:D14">
+  <x:conditionalFormatting sqref="D7:D32">
     <x:cfRule type="expression" dxfId="0" priority="1" operator="equal">
       <x:formula>H7=1</x:formula>
     </x:cfRule>

--- a/Marketing.Mvc/DadosApp/Relatorio/Relatório de Envio de Extratos de Incidência_setembro2025.xlsx
+++ b/Marketing.Mvc/DadosApp/Relatorio/Relatório de Envio de Extratos de Incidência_setembro2025.xlsx
@@ -121,10 +121,22 @@
     <x:t>Disparado</x:t>
   </x:si>
   <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Tuesday, 28-Oct-25 12:01:09 PDT.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Tuesday, 28-Oct-25 13:21:38 PDT.</x:t>
+  </x:si>
+  <x:si>
     <x:t>KONI RIO SUL</x:t>
   </x:si>
   <x:si>
     <x:t>24978274000118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Tuesday, 28-Oct-25 12:01:10 PDT.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Tuesday, 28-Oct-25 13:21:39 PDT.</x:t>
   </x:si>
   <x:si>
     <x:t>KONI CENTRO</x:t>
@@ -1033,7 +1045,7 @@
   <x:dimension ref="A1:AA892"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="B12" sqref="B12 B36"/>
+      <x:selection activeCell="B12" sqref="B12 B54"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.710625" defaultRowHeight="15" customHeight="1"/>
@@ -1481,16 +1493,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C15" s="35" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D15" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E15" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F15" s="37" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G15" s="38" t="s">
         <x:v>29</x:v>
@@ -1524,19 +1536,19 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C16" s="35" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D16" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E16" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F16" s="37" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G16" s="38" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H16" s="39"/>
       <x:c r="I16" s="39"/>
@@ -1567,10 +1579,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C17" s="35" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D17" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E17" s="37" t="s">
         <x:v>27</x:v>
@@ -1610,10 +1622,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C18" s="35" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D18" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E18" s="37" t="s">
         <x:v>27</x:v>
@@ -1653,19 +1665,19 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C19" s="35" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D19" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E19" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F19" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G19" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H19" s="39"/>
       <x:c r="I19" s="39"/>
@@ -1696,19 +1708,19 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C20" s="35" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D20" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E20" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F20" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G20" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H20" s="39"/>
       <x:c r="I20" s="39"/>
@@ -1739,16 +1751,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C21" s="35" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D21" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E21" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F21" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G21" s="38" t="s">
         <x:v>29</x:v>
@@ -1782,19 +1794,19 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C22" s="35" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D22" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E22" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F22" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G22" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H22" s="39"/>
       <x:c r="I22" s="39"/>
@@ -1834,7 +1846,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F23" s="37" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G23" s="38" t="s">
         <x:v>29</x:v>
@@ -1877,10 +1889,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F24" s="37" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G24" s="38" t="s">
-        <x:v>36</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H24" s="39"/>
       <x:c r="I24" s="39"/>
@@ -2162,13 +2174,27 @@
       <x:c r="AA30" s="39"/>
     </x:row>
     <x:row r="31" spans="1:27" ht="15" customHeight="1">
-      <x:c r="A31" s="33"/>
-      <x:c r="B31" s="34"/>
-      <x:c r="C31" s="35"/>
-      <x:c r="D31" s="36"/>
-      <x:c r="E31" s="37"/>
-      <x:c r="F31" s="37"/>
-      <x:c r="G31" s="38"/>
+      <x:c r="A31" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B31" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C31" s="35" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D31" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E31" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F31" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G31" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="H31" s="39"/>
       <x:c r="I31" s="39"/>
       <x:c r="J31" s="39"/>
@@ -2190,14 +2216,28 @@
       <x:c r="Z31" s="39"/>
       <x:c r="AA31" s="39"/>
     </x:row>
-    <x:row r="32" spans="1:27">
-      <x:c r="A32" s="33"/>
-      <x:c r="B32" s="34"/>
-      <x:c r="C32" s="35"/>
-      <x:c r="D32" s="36"/>
-      <x:c r="E32" s="37"/>
-      <x:c r="F32" s="37"/>
-      <x:c r="G32" s="38"/>
+    <x:row r="32" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A32" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B32" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C32" s="35" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D32" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E32" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F32" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G32" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="H32" s="39"/>
       <x:c r="I32" s="39"/>
       <x:c r="J32" s="39"/>
@@ -2219,174 +2259,848 @@
       <x:c r="Z32" s="39"/>
       <x:c r="AA32" s="39"/>
     </x:row>
-    <x:row r="33" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A33" s="17"/>
-      <x:c r="B33" s="18"/>
-      <x:c r="C33" s="19"/>
-      <x:c r="D33" s="20"/>
-      <x:c r="E33" s="19"/>
-      <x:c r="F33" s="19"/>
-      <x:c r="G33" s="21"/>
-    </x:row>
-    <x:row r="34" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A34" s="8"/>
-      <x:c r="B34" s="8"/>
-      <x:c r="C34" s="8"/>
-      <x:c r="D34" s="9"/>
-      <x:c r="E34" s="8"/>
-      <x:c r="F34" s="8"/>
-      <x:c r="G34" s="22"/>
-    </x:row>
-    <x:row r="35" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A35" s="39"/>
-      <x:c r="B35" s="39"/>
-      <x:c r="C35" s="39"/>
-      <x:c r="D35" s="40"/>
-      <x:c r="E35" s="39"/>
-      <x:c r="F35" s="39"/>
-      <x:c r="G35" s="23"/>
-    </x:row>
-    <x:row r="36" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A36" s="24" t="s">
+    <x:row r="33" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A33" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B33" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C33" s="35" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D33" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E33" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F33" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G33" s="38" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H33" s="39"/>
+      <x:c r="I33" s="39"/>
+      <x:c r="J33" s="39"/>
+      <x:c r="K33" s="39"/>
+      <x:c r="L33" s="39"/>
+      <x:c r="M33" s="39"/>
+      <x:c r="N33" s="39"/>
+      <x:c r="O33" s="39"/>
+      <x:c r="P33" s="39"/>
+      <x:c r="Q33" s="39"/>
+      <x:c r="R33" s="39"/>
+      <x:c r="S33" s="39"/>
+      <x:c r="T33" s="39"/>
+      <x:c r="U33" s="39"/>
+      <x:c r="V33" s="39"/>
+      <x:c r="W33" s="39"/>
+      <x:c r="X33" s="39"/>
+      <x:c r="Y33" s="39"/>
+      <x:c r="Z33" s="39"/>
+      <x:c r="AA33" s="39"/>
+    </x:row>
+    <x:row r="34" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A34" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B34" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C34" s="35" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D34" s="36" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E34" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F34" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G34" s="38" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H34" s="39"/>
+      <x:c r="I34" s="39"/>
+      <x:c r="J34" s="39"/>
+      <x:c r="K34" s="39"/>
+      <x:c r="L34" s="39"/>
+      <x:c r="M34" s="39"/>
+      <x:c r="N34" s="39"/>
+      <x:c r="O34" s="39"/>
+      <x:c r="P34" s="39"/>
+      <x:c r="Q34" s="39"/>
+      <x:c r="R34" s="39"/>
+      <x:c r="S34" s="39"/>
+      <x:c r="T34" s="39"/>
+      <x:c r="U34" s="39"/>
+      <x:c r="V34" s="39"/>
+      <x:c r="W34" s="39"/>
+      <x:c r="X34" s="39"/>
+      <x:c r="Y34" s="39"/>
+      <x:c r="Z34" s="39"/>
+      <x:c r="AA34" s="39"/>
+    </x:row>
+    <x:row r="35" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A35" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B35" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C35" s="35" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D35" s="36" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E35" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F35" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G35" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H35" s="39"/>
+      <x:c r="I35" s="39"/>
+      <x:c r="J35" s="39"/>
+      <x:c r="K35" s="39"/>
+      <x:c r="L35" s="39"/>
+      <x:c r="M35" s="39"/>
+      <x:c r="N35" s="39"/>
+      <x:c r="O35" s="39"/>
+      <x:c r="P35" s="39"/>
+      <x:c r="Q35" s="39"/>
+      <x:c r="R35" s="39"/>
+      <x:c r="S35" s="39"/>
+      <x:c r="T35" s="39"/>
+      <x:c r="U35" s="39"/>
+      <x:c r="V35" s="39"/>
+      <x:c r="W35" s="39"/>
+      <x:c r="X35" s="39"/>
+      <x:c r="Y35" s="39"/>
+      <x:c r="Z35" s="39"/>
+      <x:c r="AA35" s="39"/>
+    </x:row>
+    <x:row r="36" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A36" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B36" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C36" s="35" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D36" s="36" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E36" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F36" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G36" s="38" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H36" s="39"/>
+      <x:c r="I36" s="39"/>
+      <x:c r="J36" s="39"/>
+      <x:c r="K36" s="39"/>
+      <x:c r="L36" s="39"/>
+      <x:c r="M36" s="39"/>
+      <x:c r="N36" s="39"/>
+      <x:c r="O36" s="39"/>
+      <x:c r="P36" s="39"/>
+      <x:c r="Q36" s="39"/>
+      <x:c r="R36" s="39"/>
+      <x:c r="S36" s="39"/>
+      <x:c r="T36" s="39"/>
+      <x:c r="U36" s="39"/>
+      <x:c r="V36" s="39"/>
+      <x:c r="W36" s="39"/>
+      <x:c r="X36" s="39"/>
+      <x:c r="Y36" s="39"/>
+      <x:c r="Z36" s="39"/>
+      <x:c r="AA36" s="39"/>
+    </x:row>
+    <x:row r="37" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A37" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B37" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C37" s="35" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D37" s="36" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E37" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F37" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G37" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H37" s="39"/>
+      <x:c r="I37" s="39"/>
+      <x:c r="J37" s="39"/>
+      <x:c r="K37" s="39"/>
+      <x:c r="L37" s="39"/>
+      <x:c r="M37" s="39"/>
+      <x:c r="N37" s="39"/>
+      <x:c r="O37" s="39"/>
+      <x:c r="P37" s="39"/>
+      <x:c r="Q37" s="39"/>
+      <x:c r="R37" s="39"/>
+      <x:c r="S37" s="39"/>
+      <x:c r="T37" s="39"/>
+      <x:c r="U37" s="39"/>
+      <x:c r="V37" s="39"/>
+      <x:c r="W37" s="39"/>
+      <x:c r="X37" s="39"/>
+      <x:c r="Y37" s="39"/>
+      <x:c r="Z37" s="39"/>
+      <x:c r="AA37" s="39"/>
+    </x:row>
+    <x:row r="38" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A38" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B38" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C38" s="35" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D38" s="36" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E38" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F38" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G38" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H38" s="39"/>
+      <x:c r="I38" s="39"/>
+      <x:c r="J38" s="39"/>
+      <x:c r="K38" s="39"/>
+      <x:c r="L38" s="39"/>
+      <x:c r="M38" s="39"/>
+      <x:c r="N38" s="39"/>
+      <x:c r="O38" s="39"/>
+      <x:c r="P38" s="39"/>
+      <x:c r="Q38" s="39"/>
+      <x:c r="R38" s="39"/>
+      <x:c r="S38" s="39"/>
+      <x:c r="T38" s="39"/>
+      <x:c r="U38" s="39"/>
+      <x:c r="V38" s="39"/>
+      <x:c r="W38" s="39"/>
+      <x:c r="X38" s="39"/>
+      <x:c r="Y38" s="39"/>
+      <x:c r="Z38" s="39"/>
+      <x:c r="AA38" s="39"/>
+    </x:row>
+    <x:row r="39" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A39" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B39" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C39" s="35" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D39" s="36" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E39" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F39" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G39" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H39" s="39"/>
+      <x:c r="I39" s="39"/>
+      <x:c r="J39" s="39"/>
+      <x:c r="K39" s="39"/>
+      <x:c r="L39" s="39"/>
+      <x:c r="M39" s="39"/>
+      <x:c r="N39" s="39"/>
+      <x:c r="O39" s="39"/>
+      <x:c r="P39" s="39"/>
+      <x:c r="Q39" s="39"/>
+      <x:c r="R39" s="39"/>
+      <x:c r="S39" s="39"/>
+      <x:c r="T39" s="39"/>
+      <x:c r="U39" s="39"/>
+      <x:c r="V39" s="39"/>
+      <x:c r="W39" s="39"/>
+      <x:c r="X39" s="39"/>
+      <x:c r="Y39" s="39"/>
+      <x:c r="Z39" s="39"/>
+      <x:c r="AA39" s="39"/>
+    </x:row>
+    <x:row r="40" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A40" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B40" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C40" s="35" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D40" s="36" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E40" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F40" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G40" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H40" s="39"/>
+      <x:c r="I40" s="39"/>
+      <x:c r="J40" s="39"/>
+      <x:c r="K40" s="39"/>
+      <x:c r="L40" s="39"/>
+      <x:c r="M40" s="39"/>
+      <x:c r="N40" s="39"/>
+      <x:c r="O40" s="39"/>
+      <x:c r="P40" s="39"/>
+      <x:c r="Q40" s="39"/>
+      <x:c r="R40" s="39"/>
+      <x:c r="S40" s="39"/>
+      <x:c r="T40" s="39"/>
+      <x:c r="U40" s="39"/>
+      <x:c r="V40" s="39"/>
+      <x:c r="W40" s="39"/>
+      <x:c r="X40" s="39"/>
+      <x:c r="Y40" s="39"/>
+      <x:c r="Z40" s="39"/>
+      <x:c r="AA40" s="39"/>
+    </x:row>
+    <x:row r="41" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A41" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B41" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C41" s="35" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D41" s="36" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E41" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F41" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G41" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H41" s="39"/>
+      <x:c r="I41" s="39"/>
+      <x:c r="J41" s="39"/>
+      <x:c r="K41" s="39"/>
+      <x:c r="L41" s="39"/>
+      <x:c r="M41" s="39"/>
+      <x:c r="N41" s="39"/>
+      <x:c r="O41" s="39"/>
+      <x:c r="P41" s="39"/>
+      <x:c r="Q41" s="39"/>
+      <x:c r="R41" s="39"/>
+      <x:c r="S41" s="39"/>
+      <x:c r="T41" s="39"/>
+      <x:c r="U41" s="39"/>
+      <x:c r="V41" s="39"/>
+      <x:c r="W41" s="39"/>
+      <x:c r="X41" s="39"/>
+      <x:c r="Y41" s="39"/>
+      <x:c r="Z41" s="39"/>
+      <x:c r="AA41" s="39"/>
+    </x:row>
+    <x:row r="42" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A42" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B42" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C42" s="35" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D42" s="36" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E42" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F42" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G42" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H42" s="39"/>
+      <x:c r="I42" s="39"/>
+      <x:c r="J42" s="39"/>
+      <x:c r="K42" s="39"/>
+      <x:c r="L42" s="39"/>
+      <x:c r="M42" s="39"/>
+      <x:c r="N42" s="39"/>
+      <x:c r="O42" s="39"/>
+      <x:c r="P42" s="39"/>
+      <x:c r="Q42" s="39"/>
+      <x:c r="R42" s="39"/>
+      <x:c r="S42" s="39"/>
+      <x:c r="T42" s="39"/>
+      <x:c r="U42" s="39"/>
+      <x:c r="V42" s="39"/>
+      <x:c r="W42" s="39"/>
+      <x:c r="X42" s="39"/>
+      <x:c r="Y42" s="39"/>
+      <x:c r="Z42" s="39"/>
+      <x:c r="AA42" s="39"/>
+    </x:row>
+    <x:row r="43" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A43" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B43" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C43" s="35" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D43" s="36" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E43" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F43" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G43" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H43" s="39"/>
+      <x:c r="I43" s="39"/>
+      <x:c r="J43" s="39"/>
+      <x:c r="K43" s="39"/>
+      <x:c r="L43" s="39"/>
+      <x:c r="M43" s="39"/>
+      <x:c r="N43" s="39"/>
+      <x:c r="O43" s="39"/>
+      <x:c r="P43" s="39"/>
+      <x:c r="Q43" s="39"/>
+      <x:c r="R43" s="39"/>
+      <x:c r="S43" s="39"/>
+      <x:c r="T43" s="39"/>
+      <x:c r="U43" s="39"/>
+      <x:c r="V43" s="39"/>
+      <x:c r="W43" s="39"/>
+      <x:c r="X43" s="39"/>
+      <x:c r="Y43" s="39"/>
+      <x:c r="Z43" s="39"/>
+      <x:c r="AA43" s="39"/>
+    </x:row>
+    <x:row r="44" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A44" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B44" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C44" s="35" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D44" s="36" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E44" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F44" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G44" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H44" s="39"/>
+      <x:c r="I44" s="39"/>
+      <x:c r="J44" s="39"/>
+      <x:c r="K44" s="39"/>
+      <x:c r="L44" s="39"/>
+      <x:c r="M44" s="39"/>
+      <x:c r="N44" s="39"/>
+      <x:c r="O44" s="39"/>
+      <x:c r="P44" s="39"/>
+      <x:c r="Q44" s="39"/>
+      <x:c r="R44" s="39"/>
+      <x:c r="S44" s="39"/>
+      <x:c r="T44" s="39"/>
+      <x:c r="U44" s="39"/>
+      <x:c r="V44" s="39"/>
+      <x:c r="W44" s="39"/>
+      <x:c r="X44" s="39"/>
+      <x:c r="Y44" s="39"/>
+      <x:c r="Z44" s="39"/>
+      <x:c r="AA44" s="39"/>
+    </x:row>
+    <x:row r="45" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A45" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B45" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C45" s="35" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D45" s="36" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E45" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F45" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G45" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H45" s="39"/>
+      <x:c r="I45" s="39"/>
+      <x:c r="J45" s="39"/>
+      <x:c r="K45" s="39"/>
+      <x:c r="L45" s="39"/>
+      <x:c r="M45" s="39"/>
+      <x:c r="N45" s="39"/>
+      <x:c r="O45" s="39"/>
+      <x:c r="P45" s="39"/>
+      <x:c r="Q45" s="39"/>
+      <x:c r="R45" s="39"/>
+      <x:c r="S45" s="39"/>
+      <x:c r="T45" s="39"/>
+      <x:c r="U45" s="39"/>
+      <x:c r="V45" s="39"/>
+      <x:c r="W45" s="39"/>
+      <x:c r="X45" s="39"/>
+      <x:c r="Y45" s="39"/>
+      <x:c r="Z45" s="39"/>
+      <x:c r="AA45" s="39"/>
+    </x:row>
+    <x:row r="46" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A46" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B46" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C46" s="35" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D46" s="36" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E46" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F46" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G46" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H46" s="39"/>
+      <x:c r="I46" s="39"/>
+      <x:c r="J46" s="39"/>
+      <x:c r="K46" s="39"/>
+      <x:c r="L46" s="39"/>
+      <x:c r="M46" s="39"/>
+      <x:c r="N46" s="39"/>
+      <x:c r="O46" s="39"/>
+      <x:c r="P46" s="39"/>
+      <x:c r="Q46" s="39"/>
+      <x:c r="R46" s="39"/>
+      <x:c r="S46" s="39"/>
+      <x:c r="T46" s="39"/>
+      <x:c r="U46" s="39"/>
+      <x:c r="V46" s="39"/>
+      <x:c r="W46" s="39"/>
+      <x:c r="X46" s="39"/>
+      <x:c r="Y46" s="39"/>
+      <x:c r="Z46" s="39"/>
+      <x:c r="AA46" s="39"/>
+    </x:row>
+    <x:row r="47" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A47" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B47" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C47" s="35" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D47" s="36" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E47" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F47" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G47" s="38" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H47" s="39"/>
+      <x:c r="I47" s="39"/>
+      <x:c r="J47" s="39"/>
+      <x:c r="K47" s="39"/>
+      <x:c r="L47" s="39"/>
+      <x:c r="M47" s="39"/>
+      <x:c r="N47" s="39"/>
+      <x:c r="O47" s="39"/>
+      <x:c r="P47" s="39"/>
+      <x:c r="Q47" s="39"/>
+      <x:c r="R47" s="39"/>
+      <x:c r="S47" s="39"/>
+      <x:c r="T47" s="39"/>
+      <x:c r="U47" s="39"/>
+      <x:c r="V47" s="39"/>
+      <x:c r="W47" s="39"/>
+      <x:c r="X47" s="39"/>
+      <x:c r="Y47" s="39"/>
+      <x:c r="Z47" s="39"/>
+      <x:c r="AA47" s="39"/>
+    </x:row>
+    <x:row r="48" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A48" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B48" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C48" s="35" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D48" s="36" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E48" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F48" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G48" s="38" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H48" s="39"/>
+      <x:c r="I48" s="39"/>
+      <x:c r="J48" s="39"/>
+      <x:c r="K48" s="39"/>
+      <x:c r="L48" s="39"/>
+      <x:c r="M48" s="39"/>
+      <x:c r="N48" s="39"/>
+      <x:c r="O48" s="39"/>
+      <x:c r="P48" s="39"/>
+      <x:c r="Q48" s="39"/>
+      <x:c r="R48" s="39"/>
+      <x:c r="S48" s="39"/>
+      <x:c r="T48" s="39"/>
+      <x:c r="U48" s="39"/>
+      <x:c r="V48" s="39"/>
+      <x:c r="W48" s="39"/>
+      <x:c r="X48" s="39"/>
+      <x:c r="Y48" s="39"/>
+      <x:c r="Z48" s="39"/>
+      <x:c r="AA48" s="39"/>
+    </x:row>
+    <x:row r="49" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A49" s="33"/>
+      <x:c r="B49" s="34"/>
+      <x:c r="C49" s="35"/>
+      <x:c r="D49" s="36"/>
+      <x:c r="E49" s="37"/>
+      <x:c r="F49" s="37"/>
+      <x:c r="G49" s="38"/>
+      <x:c r="H49" s="39"/>
+      <x:c r="I49" s="39"/>
+      <x:c r="J49" s="39"/>
+      <x:c r="K49" s="39"/>
+      <x:c r="L49" s="39"/>
+      <x:c r="M49" s="39"/>
+      <x:c r="N49" s="39"/>
+      <x:c r="O49" s="39"/>
+      <x:c r="P49" s="39"/>
+      <x:c r="Q49" s="39"/>
+      <x:c r="R49" s="39"/>
+      <x:c r="S49" s="39"/>
+      <x:c r="T49" s="39"/>
+      <x:c r="U49" s="39"/>
+      <x:c r="V49" s="39"/>
+      <x:c r="W49" s="39"/>
+      <x:c r="X49" s="39"/>
+      <x:c r="Y49" s="39"/>
+      <x:c r="Z49" s="39"/>
+      <x:c r="AA49" s="39"/>
+    </x:row>
+    <x:row r="50" spans="1:27">
+      <x:c r="A50" s="33"/>
+      <x:c r="B50" s="34"/>
+      <x:c r="C50" s="35"/>
+      <x:c r="D50" s="36"/>
+      <x:c r="E50" s="37"/>
+      <x:c r="F50" s="37"/>
+      <x:c r="G50" s="38"/>
+      <x:c r="H50" s="39"/>
+      <x:c r="I50" s="39"/>
+      <x:c r="J50" s="39"/>
+      <x:c r="K50" s="39"/>
+      <x:c r="L50" s="39"/>
+      <x:c r="M50" s="39"/>
+      <x:c r="N50" s="39"/>
+      <x:c r="O50" s="39"/>
+      <x:c r="P50" s="39"/>
+      <x:c r="Q50" s="39"/>
+      <x:c r="R50" s="39"/>
+      <x:c r="S50" s="39"/>
+      <x:c r="T50" s="39"/>
+      <x:c r="U50" s="39"/>
+      <x:c r="V50" s="39"/>
+      <x:c r="W50" s="39"/>
+      <x:c r="X50" s="39"/>
+      <x:c r="Y50" s="39"/>
+      <x:c r="Z50" s="39"/>
+      <x:c r="AA50" s="39"/>
+    </x:row>
+    <x:row r="51" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A51" s="17"/>
+      <x:c r="B51" s="18"/>
+      <x:c r="C51" s="19"/>
+      <x:c r="D51" s="20"/>
+      <x:c r="E51" s="19"/>
+      <x:c r="F51" s="19"/>
+      <x:c r="G51" s="21"/>
+    </x:row>
+    <x:row r="52" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A52" s="8"/>
+      <x:c r="B52" s="8"/>
+      <x:c r="C52" s="8"/>
+      <x:c r="D52" s="9"/>
+      <x:c r="E52" s="8"/>
+      <x:c r="F52" s="8"/>
+      <x:c r="G52" s="22"/>
+    </x:row>
+    <x:row r="53" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A53" s="39"/>
+      <x:c r="B53" s="39"/>
+      <x:c r="C53" s="39"/>
+      <x:c r="D53" s="40"/>
+      <x:c r="E53" s="39"/>
+      <x:c r="F53" s="39"/>
+      <x:c r="G53" s="23"/>
+    </x:row>
+    <x:row r="54" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A54" s="24" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B36" s="24">
+      <x:c r="B54" s="24">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C36" s="25" t="s">
+      <x:c r="C54" s="25" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D36" s="26"/>
-      <x:c r="E36" s="27"/>
-      <x:c r="F36" s="56"/>
-      <x:c r="G36" s="23"/>
-    </x:row>
-    <x:row r="37" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A37" s="24" t="s">
+      <x:c r="D54" s="26"/>
+      <x:c r="E54" s="27"/>
+      <x:c r="F54" s="56"/>
+      <x:c r="G54" s="23"/>
+    </x:row>
+    <x:row r="55" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A55" s="24" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B37" s="24">
+      <x:c r="B55" s="24">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C37" s="25" t="s">
+      <x:c r="C55" s="25" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D37" s="28"/>
-      <x:c r="E37" s="27"/>
-      <x:c r="F37" s="56"/>
-      <x:c r="G37" s="23"/>
-    </x:row>
-    <x:row r="38" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A38" s="24" t="s">
+      <x:c r="D55" s="28"/>
+      <x:c r="E55" s="27"/>
+      <x:c r="F55" s="56"/>
+      <x:c r="G55" s="23"/>
+    </x:row>
+    <x:row r="56" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A56" s="24" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B38" s="24">
+      <x:c r="B56" s="24">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C38" s="29" t="s">
+      <x:c r="C56" s="29" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D38" s="30"/>
-      <x:c r="E38" s="27"/>
-      <x:c r="F38" s="56"/>
-      <x:c r="G38" s="23"/>
-    </x:row>
-    <x:row r="39" spans="1:27" ht="112.15" customHeight="1">
-      <x:c r="A39" s="24" t="s">
+      <x:c r="D56" s="30"/>
+      <x:c r="E56" s="27"/>
+      <x:c r="F56" s="56"/>
+      <x:c r="G56" s="23"/>
+    </x:row>
+    <x:row r="57" spans="1:27" ht="112.15" customHeight="1">
+      <x:c r="A57" s="24" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B39" s="24">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C39" s="29" t="s">
+      <x:c r="B57" s="24">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C57" s="29" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D39" s="30"/>
-      <x:c r="E39" s="27"/>
-      <x:c r="F39" s="56"/>
-      <x:c r="G39" s="23"/>
-    </x:row>
-    <x:row r="40" spans="1:27" ht="37.9" customHeight="1">
-      <x:c r="A40" s="57"/>
-      <x:c r="B40" s="24"/>
-      <x:c r="C40" s="29" t="s">
+      <x:c r="D57" s="30"/>
+      <x:c r="E57" s="27"/>
+      <x:c r="F57" s="56"/>
+      <x:c r="G57" s="23"/>
+    </x:row>
+    <x:row r="58" spans="1:27" ht="37.9" customHeight="1">
+      <x:c r="A58" s="57"/>
+      <x:c r="B58" s="24"/>
+      <x:c r="C58" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D40" s="30"/>
-      <x:c r="E40" s="27"/>
-      <x:c r="F40" s="56"/>
-      <x:c r="G40" s="23"/>
-    </x:row>
-    <x:row r="41" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D41" s="41"/>
-      <x:c r="G41" s="23"/>
-    </x:row>
-    <x:row r="42" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D42" s="41"/>
-      <x:c r="G42" s="23"/>
-    </x:row>
-    <x:row r="43" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D43" s="41"/>
-      <x:c r="G43" s="23"/>
-    </x:row>
-    <x:row r="44" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D44" s="41"/>
-      <x:c r="G44" s="23"/>
-    </x:row>
-    <x:row r="45" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D45" s="41"/>
-      <x:c r="G45" s="23"/>
-    </x:row>
-    <x:row r="46" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D46" s="41"/>
-      <x:c r="G46" s="23"/>
-    </x:row>
-    <x:row r="47" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D47" s="41"/>
-      <x:c r="G47" s="23"/>
-    </x:row>
-    <x:row r="48" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D48" s="41"/>
-      <x:c r="G48" s="23"/>
-    </x:row>
-    <x:row r="49" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D49" s="41"/>
-      <x:c r="G49" s="23"/>
-    </x:row>
-    <x:row r="50" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D50" s="41"/>
-      <x:c r="G50" s="23"/>
-    </x:row>
-    <x:row r="51" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D51" s="41"/>
-      <x:c r="G51" s="23"/>
-    </x:row>
-    <x:row r="52" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D52" s="41"/>
-      <x:c r="G52" s="23"/>
-    </x:row>
-    <x:row r="53" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D53" s="41"/>
-      <x:c r="G53" s="23"/>
-    </x:row>
-    <x:row r="54" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D54" s="41"/>
-      <x:c r="G54" s="23"/>
-    </x:row>
-    <x:row r="55" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D55" s="41"/>
-      <x:c r="G55" s="23"/>
-    </x:row>
-    <x:row r="56" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D56" s="41"/>
-      <x:c r="G56" s="23"/>
-    </x:row>
-    <x:row r="57" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D57" s="41"/>
-      <x:c r="G57" s="23"/>
-    </x:row>
-    <x:row r="58" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D58" s="41"/>
+      <x:c r="D58" s="30"/>
+      <x:c r="E58" s="27"/>
+      <x:c r="F58" s="56"/>
       <x:c r="G58" s="23"/>
     </x:row>
     <x:row r="59" spans="1:27" ht="15.75" customHeight="1">
@@ -3119,57 +3833,75 @@
     </x:row>
     <x:row r="241" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D241" s="41"/>
+      <x:c r="G241" s="23"/>
     </x:row>
     <x:row r="242" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D242" s="41"/>
+      <x:c r="G242" s="23"/>
     </x:row>
     <x:row r="243" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D243" s="41"/>
+      <x:c r="G243" s="23"/>
     </x:row>
     <x:row r="244" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D244" s="41"/>
+      <x:c r="G244" s="23"/>
     </x:row>
     <x:row r="245" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D245" s="41"/>
+      <x:c r="G245" s="23"/>
     </x:row>
     <x:row r="246" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D246" s="41"/>
+      <x:c r="G246" s="23"/>
     </x:row>
     <x:row r="247" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D247" s="41"/>
+      <x:c r="G247" s="23"/>
     </x:row>
     <x:row r="248" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D248" s="41"/>
+      <x:c r="G248" s="23"/>
     </x:row>
     <x:row r="249" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D249" s="41"/>
+      <x:c r="G249" s="23"/>
     </x:row>
     <x:row r="250" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D250" s="41"/>
+      <x:c r="G250" s="23"/>
     </x:row>
     <x:row r="251" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D251" s="41"/>
+      <x:c r="G251" s="23"/>
     </x:row>
     <x:row r="252" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D252" s="41"/>
+      <x:c r="G252" s="23"/>
     </x:row>
     <x:row r="253" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D253" s="41"/>
+      <x:c r="G253" s="23"/>
     </x:row>
     <x:row r="254" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D254" s="41"/>
+      <x:c r="G254" s="23"/>
     </x:row>
     <x:row r="255" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D255" s="41"/>
+      <x:c r="G255" s="23"/>
     </x:row>
     <x:row r="256" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D256" s="41"/>
+      <x:c r="G256" s="23"/>
     </x:row>
     <x:row r="257" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D257" s="41"/>
+      <x:c r="G257" s="23"/>
     </x:row>
     <x:row r="258" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D258" s="41"/>
+      <x:c r="G258" s="23"/>
     </x:row>
     <x:row r="259" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D259" s="41"/>
@@ -5144,6 +5876,60 @@
     </x:row>
     <x:row r="916" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D916" s="41"/>
+    </x:row>
+    <x:row r="917" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D917" s="41"/>
+    </x:row>
+    <x:row r="918" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D918" s="41"/>
+    </x:row>
+    <x:row r="919" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D919" s="41"/>
+    </x:row>
+    <x:row r="920" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D920" s="41"/>
+    </x:row>
+    <x:row r="921" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D921" s="41"/>
+    </x:row>
+    <x:row r="922" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D922" s="41"/>
+    </x:row>
+    <x:row r="923" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D923" s="41"/>
+    </x:row>
+    <x:row r="924" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D924" s="41"/>
+    </x:row>
+    <x:row r="925" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D925" s="41"/>
+    </x:row>
+    <x:row r="926" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D926" s="41"/>
+    </x:row>
+    <x:row r="927" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D927" s="41"/>
+    </x:row>
+    <x:row r="928" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D928" s="41"/>
+    </x:row>
+    <x:row r="929" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D929" s="41"/>
+    </x:row>
+    <x:row r="930" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D930" s="41"/>
+    </x:row>
+    <x:row r="931" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D931" s="41"/>
+    </x:row>
+    <x:row r="932" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D932" s="41"/>
+    </x:row>
+    <x:row r="933" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D933" s="41"/>
+    </x:row>
+    <x:row r="934" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D934" s="41"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -5153,7 +5939,7 @@
     <x:mergeCell ref="B3:F3"/>
     <x:mergeCell ref="B4:F4"/>
   </x:mergeCells>
-  <x:conditionalFormatting sqref="D7:D32">
+  <x:conditionalFormatting sqref="D7:D50">
     <x:cfRule type="expression" dxfId="0" priority="1" operator="equal">
       <x:formula>H7=1</x:formula>
     </x:cfRule>

--- a/Marketing.Mvc/DadosApp/Relatorio/Relatório de Envio de Extratos de Incidência_setembro2025.xlsx
+++ b/Marketing.Mvc/DadosApp/Relatorio/Relatório de Envio de Extratos de Incidência_setembro2025.xlsx
@@ -127,6 +127,39 @@
     <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Tuesday, 28-Oct-25 13:21:38 PDT.</x:t>
   </x:si>
   <x:si>
+    <x:t>29/10/2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Wednesday, 29-Oct-25 18:28:09 PDT.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Wednesday, 29-Oct-25 18:28:10 PDT.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Wednesday, 29-Oct-25 18:30:23 PDT.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Wednesday, 29-Oct-25 18:31:29 PDT.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Wednesday, 29-Oct-25 18:32:35 PDT.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Wednesday, 29-Oct-25 18:35:50 PDT.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Wednesday, 29-Oct-25 18:38:09 PDT.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Wednesday, 29-Oct-25 18:40:04 PDT.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Wednesday, 29-Oct-25 18:42:22 PDT.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Wednesday, 29-Oct-25 18:43:46 PDT.</x:t>
+  </x:si>
+  <x:si>
     <x:t>KONI RIO SUL</x:t>
   </x:si>
   <x:si>
@@ -139,6 +172,9 @@
     <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Tuesday, 28-Oct-25 13:21:39 PDT.</x:t>
   </x:si>
   <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Wednesday, 29-Oct-25 18:42:23 PDT.</x:t>
+  </x:si>
+  <x:si>
     <x:t>KONI CENTRO</x:t>
   </x:si>
   <x:si>
@@ -146,6 +182,12 @@
   </x:si>
   <x:si>
     <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 08:00:00 PDT. The current time is Tuesday, 28-Oct-25 09:53:13 PDT.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Wednesday, 29-Oct-25 18:28:11 PDT.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error validating access token: Session has expired on Tuesday, 28-Oct-25 12:00:00 PDT. The current time is Wednesday, 29-Oct-25 18:30:24 PDT.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1045,7 +1087,7 @@
   <x:dimension ref="A1:AA892"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="B12" sqref="B12 B54"/>
+      <x:selection activeCell="B12" sqref="B12 B87"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.710625" defaultRowHeight="15" customHeight="1"/>
@@ -1745,16 +1787,16 @@
     </x:row>
     <x:row r="21" spans="1:27" ht="15" customHeight="1">
       <x:c r="A21" s="33" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B21" s="34" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C21" s="35" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D21" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E21" s="37" t="s">
         <x:v>27</x:v>
@@ -1763,7 +1805,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G21" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H21" s="39"/>
       <x:c r="I21" s="39"/>
@@ -1788,16 +1830,16 @@
     </x:row>
     <x:row r="22" spans="1:27" ht="15" customHeight="1">
       <x:c r="A22" s="33" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B22" s="34" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C22" s="35" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D22" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E22" s="37" t="s">
         <x:v>27</x:v>
@@ -1806,7 +1848,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G22" s="38" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H22" s="39"/>
       <x:c r="I22" s="39"/>
@@ -1831,25 +1873,25 @@
     </x:row>
     <x:row r="23" spans="1:27" ht="15" customHeight="1">
       <x:c r="A23" s="33" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B23" s="34" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C23" s="35" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D23" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E23" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F23" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G23" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H23" s="39"/>
       <x:c r="I23" s="39"/>
@@ -1874,25 +1916,25 @@
     </x:row>
     <x:row r="24" spans="1:27" ht="15" customHeight="1">
       <x:c r="A24" s="33" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B24" s="34" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C24" s="35" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D24" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E24" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F24" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G24" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H24" s="39"/>
       <x:c r="I24" s="39"/>
@@ -1917,25 +1959,25 @@
     </x:row>
     <x:row r="25" spans="1:27" ht="15" customHeight="1">
       <x:c r="A25" s="33" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B25" s="34" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C25" s="35" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D25" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E25" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F25" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G25" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H25" s="39"/>
       <x:c r="I25" s="39"/>
@@ -1960,25 +2002,25 @@
     </x:row>
     <x:row r="26" spans="1:27" ht="15" customHeight="1">
       <x:c r="A26" s="33" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B26" s="34" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C26" s="35" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D26" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E26" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F26" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G26" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H26" s="39"/>
       <x:c r="I26" s="39"/>
@@ -2003,25 +2045,25 @@
     </x:row>
     <x:row r="27" spans="1:27" ht="15" customHeight="1">
       <x:c r="A27" s="33" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B27" s="34" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C27" s="35" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D27" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E27" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F27" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G27" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H27" s="39"/>
       <x:c r="I27" s="39"/>
@@ -2046,25 +2088,25 @@
     </x:row>
     <x:row r="28" spans="1:27" ht="15" customHeight="1">
       <x:c r="A28" s="33" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B28" s="34" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C28" s="35" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D28" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E28" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F28" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G28" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H28" s="39"/>
       <x:c r="I28" s="39"/>
@@ -2089,25 +2131,25 @@
     </x:row>
     <x:row r="29" spans="1:27" ht="15" customHeight="1">
       <x:c r="A29" s="33" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B29" s="34" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C29" s="35" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D29" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E29" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F29" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G29" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H29" s="39"/>
       <x:c r="I29" s="39"/>
@@ -2132,25 +2174,25 @@
     </x:row>
     <x:row r="30" spans="1:27" ht="15" customHeight="1">
       <x:c r="A30" s="33" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B30" s="34" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C30" s="35" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D30" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E30" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F30" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G30" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H30" s="39"/>
       <x:c r="I30" s="39"/>
@@ -2175,25 +2217,25 @@
     </x:row>
     <x:row r="31" spans="1:27" ht="15" customHeight="1">
       <x:c r="A31" s="33" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B31" s="34" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C31" s="35" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D31" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E31" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F31" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G31" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H31" s="39"/>
       <x:c r="I31" s="39"/>
@@ -2224,16 +2266,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C32" s="35" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D32" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E32" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F32" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G32" s="38" t="s">
         <x:v>29</x:v>
@@ -2267,10 +2309,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C33" s="35" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D33" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E33" s="37" t="s">
         <x:v>27</x:v>
@@ -2279,7 +2321,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G33" s="38" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H33" s="39"/>
       <x:c r="I33" s="39"/>
@@ -2310,19 +2352,19 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C34" s="35" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D34" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E34" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F34" s="37" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G34" s="38" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H34" s="39"/>
       <x:c r="I34" s="39"/>
@@ -2353,16 +2395,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C35" s="35" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D35" s="36" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E35" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F35" s="37" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G35" s="38" t="s">
         <x:v>29</x:v>
@@ -2396,19 +2438,19 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C36" s="35" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D36" s="36" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E36" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F36" s="37" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G36" s="38" t="s">
-        <x:v>40</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H36" s="39"/>
       <x:c r="I36" s="39"/>
@@ -2439,10 +2481,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C37" s="35" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D37" s="36" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E37" s="37" t="s">
         <x:v>27</x:v>
@@ -2482,10 +2524,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C38" s="35" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D38" s="36" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E38" s="37" t="s">
         <x:v>27</x:v>
@@ -2525,10 +2567,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C39" s="35" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D39" s="36" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E39" s="37" t="s">
         <x:v>27</x:v>
@@ -2568,10 +2610,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C40" s="35" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D40" s="36" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E40" s="37" t="s">
         <x:v>27</x:v>
@@ -2611,10 +2653,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C41" s="35" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D41" s="36" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E41" s="37" t="s">
         <x:v>27</x:v>
@@ -2654,10 +2696,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C42" s="35" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D42" s="36" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E42" s="37" t="s">
         <x:v>27</x:v>
@@ -2697,10 +2739,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C43" s="35" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D43" s="36" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E43" s="37" t="s">
         <x:v>27</x:v>
@@ -2740,19 +2782,19 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C44" s="35" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D44" s="36" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E44" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F44" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G44" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H44" s="39"/>
       <x:c r="I44" s="39"/>
@@ -2783,19 +2825,19 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C45" s="35" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D45" s="36" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E45" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F45" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G45" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H45" s="39"/>
       <x:c r="I45" s="39"/>
@@ -2820,25 +2862,25 @@
     </x:row>
     <x:row r="46" spans="1:27" ht="15" customHeight="1">
       <x:c r="A46" s="33" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B46" s="34" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C46" s="35" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D46" s="36" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E46" s="37" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F46" s="37" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G46" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H46" s="39"/>
       <x:c r="I46" s="39"/>
@@ -2863,16 +2905,16 @@
     </x:row>
     <x:row r="47" spans="1:27" ht="15" customHeight="1">
       <x:c r="A47" s="33" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B47" s="34" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C47" s="35" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D47" s="36" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E47" s="37" t="s">
         <x:v>27</x:v>
@@ -2906,16 +2948,16 @@
     </x:row>
     <x:row r="48" spans="1:27" ht="15" customHeight="1">
       <x:c r="A48" s="33" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B48" s="34" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C48" s="35" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D48" s="36" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E48" s="37" t="s">
         <x:v>27</x:v>
@@ -2924,7 +2966,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G48" s="38" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H48" s="39"/>
       <x:c r="I48" s="39"/>
@@ -2948,13 +2990,27 @@
       <x:c r="AA48" s="39"/>
     </x:row>
     <x:row r="49" spans="1:27" ht="15" customHeight="1">
-      <x:c r="A49" s="33"/>
-      <x:c r="B49" s="34"/>
-      <x:c r="C49" s="35"/>
-      <x:c r="D49" s="36"/>
-      <x:c r="E49" s="37"/>
-      <x:c r="F49" s="37"/>
-      <x:c r="G49" s="38"/>
+      <x:c r="A49" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B49" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C49" s="35" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D49" s="36" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E49" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F49" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G49" s="38" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="H49" s="39"/>
       <x:c r="I49" s="39"/>
       <x:c r="J49" s="39"/>
@@ -2976,14 +3032,28 @@
       <x:c r="Z49" s="39"/>
       <x:c r="AA49" s="39"/>
     </x:row>
-    <x:row r="50" spans="1:27">
-      <x:c r="A50" s="33"/>
-      <x:c r="B50" s="34"/>
-      <x:c r="C50" s="35"/>
-      <x:c r="D50" s="36"/>
-      <x:c r="E50" s="37"/>
-      <x:c r="F50" s="37"/>
-      <x:c r="G50" s="38"/>
+    <x:row r="50" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A50" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B50" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C50" s="35" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D50" s="36" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E50" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F50" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G50" s="38" t="s">
+        <x:v>38</x:v>
+      </x:c>
       <x:c r="H50" s="39"/>
       <x:c r="I50" s="39"/>
       <x:c r="J50" s="39"/>
@@ -3005,234 +3075,1493 @@
       <x:c r="Z50" s="39"/>
       <x:c r="AA50" s="39"/>
     </x:row>
-    <x:row r="51" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A51" s="17"/>
-      <x:c r="B51" s="18"/>
-      <x:c r="C51" s="19"/>
-      <x:c r="D51" s="20"/>
-      <x:c r="E51" s="19"/>
-      <x:c r="F51" s="19"/>
-      <x:c r="G51" s="21"/>
-    </x:row>
-    <x:row r="52" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A52" s="8"/>
-      <x:c r="B52" s="8"/>
-      <x:c r="C52" s="8"/>
-      <x:c r="D52" s="9"/>
-      <x:c r="E52" s="8"/>
-      <x:c r="F52" s="8"/>
-      <x:c r="G52" s="22"/>
-    </x:row>
-    <x:row r="53" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="A53" s="39"/>
-      <x:c r="B53" s="39"/>
-      <x:c r="C53" s="39"/>
-      <x:c r="D53" s="40"/>
-      <x:c r="E53" s="39"/>
-      <x:c r="F53" s="39"/>
-      <x:c r="G53" s="23"/>
-    </x:row>
-    <x:row r="54" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A54" s="24" t="s">
+    <x:row r="51" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A51" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B51" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C51" s="35" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D51" s="36" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E51" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F51" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G51" s="38" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H51" s="39"/>
+      <x:c r="I51" s="39"/>
+      <x:c r="J51" s="39"/>
+      <x:c r="K51" s="39"/>
+      <x:c r="L51" s="39"/>
+      <x:c r="M51" s="39"/>
+      <x:c r="N51" s="39"/>
+      <x:c r="O51" s="39"/>
+      <x:c r="P51" s="39"/>
+      <x:c r="Q51" s="39"/>
+      <x:c r="R51" s="39"/>
+      <x:c r="S51" s="39"/>
+      <x:c r="T51" s="39"/>
+      <x:c r="U51" s="39"/>
+      <x:c r="V51" s="39"/>
+      <x:c r="W51" s="39"/>
+      <x:c r="X51" s="39"/>
+      <x:c r="Y51" s="39"/>
+      <x:c r="Z51" s="39"/>
+      <x:c r="AA51" s="39"/>
+    </x:row>
+    <x:row r="52" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A52" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B52" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C52" s="35" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D52" s="36" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E52" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F52" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G52" s="38" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H52" s="39"/>
+      <x:c r="I52" s="39"/>
+      <x:c r="J52" s="39"/>
+      <x:c r="K52" s="39"/>
+      <x:c r="L52" s="39"/>
+      <x:c r="M52" s="39"/>
+      <x:c r="N52" s="39"/>
+      <x:c r="O52" s="39"/>
+      <x:c r="P52" s="39"/>
+      <x:c r="Q52" s="39"/>
+      <x:c r="R52" s="39"/>
+      <x:c r="S52" s="39"/>
+      <x:c r="T52" s="39"/>
+      <x:c r="U52" s="39"/>
+      <x:c r="V52" s="39"/>
+      <x:c r="W52" s="39"/>
+      <x:c r="X52" s="39"/>
+      <x:c r="Y52" s="39"/>
+      <x:c r="Z52" s="39"/>
+      <x:c r="AA52" s="39"/>
+    </x:row>
+    <x:row r="53" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A53" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B53" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C53" s="35" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D53" s="36" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E53" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F53" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G53" s="38" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H53" s="39"/>
+      <x:c r="I53" s="39"/>
+      <x:c r="J53" s="39"/>
+      <x:c r="K53" s="39"/>
+      <x:c r="L53" s="39"/>
+      <x:c r="M53" s="39"/>
+      <x:c r="N53" s="39"/>
+      <x:c r="O53" s="39"/>
+      <x:c r="P53" s="39"/>
+      <x:c r="Q53" s="39"/>
+      <x:c r="R53" s="39"/>
+      <x:c r="S53" s="39"/>
+      <x:c r="T53" s="39"/>
+      <x:c r="U53" s="39"/>
+      <x:c r="V53" s="39"/>
+      <x:c r="W53" s="39"/>
+      <x:c r="X53" s="39"/>
+      <x:c r="Y53" s="39"/>
+      <x:c r="Z53" s="39"/>
+      <x:c r="AA53" s="39"/>
+    </x:row>
+    <x:row r="54" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A54" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B54" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C54" s="35" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D54" s="36" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E54" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F54" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G54" s="38" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H54" s="39"/>
+      <x:c r="I54" s="39"/>
+      <x:c r="J54" s="39"/>
+      <x:c r="K54" s="39"/>
+      <x:c r="L54" s="39"/>
+      <x:c r="M54" s="39"/>
+      <x:c r="N54" s="39"/>
+      <x:c r="O54" s="39"/>
+      <x:c r="P54" s="39"/>
+      <x:c r="Q54" s="39"/>
+      <x:c r="R54" s="39"/>
+      <x:c r="S54" s="39"/>
+      <x:c r="T54" s="39"/>
+      <x:c r="U54" s="39"/>
+      <x:c r="V54" s="39"/>
+      <x:c r="W54" s="39"/>
+      <x:c r="X54" s="39"/>
+      <x:c r="Y54" s="39"/>
+      <x:c r="Z54" s="39"/>
+      <x:c r="AA54" s="39"/>
+    </x:row>
+    <x:row r="55" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A55" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B55" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C55" s="35" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D55" s="36" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E55" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F55" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G55" s="38" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H55" s="39"/>
+      <x:c r="I55" s="39"/>
+      <x:c r="J55" s="39"/>
+      <x:c r="K55" s="39"/>
+      <x:c r="L55" s="39"/>
+      <x:c r="M55" s="39"/>
+      <x:c r="N55" s="39"/>
+      <x:c r="O55" s="39"/>
+      <x:c r="P55" s="39"/>
+      <x:c r="Q55" s="39"/>
+      <x:c r="R55" s="39"/>
+      <x:c r="S55" s="39"/>
+      <x:c r="T55" s="39"/>
+      <x:c r="U55" s="39"/>
+      <x:c r="V55" s="39"/>
+      <x:c r="W55" s="39"/>
+      <x:c r="X55" s="39"/>
+      <x:c r="Y55" s="39"/>
+      <x:c r="Z55" s="39"/>
+      <x:c r="AA55" s="39"/>
+    </x:row>
+    <x:row r="56" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A56" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B56" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C56" s="35" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D56" s="36" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E56" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F56" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G56" s="38" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H56" s="39"/>
+      <x:c r="I56" s="39"/>
+      <x:c r="J56" s="39"/>
+      <x:c r="K56" s="39"/>
+      <x:c r="L56" s="39"/>
+      <x:c r="M56" s="39"/>
+      <x:c r="N56" s="39"/>
+      <x:c r="O56" s="39"/>
+      <x:c r="P56" s="39"/>
+      <x:c r="Q56" s="39"/>
+      <x:c r="R56" s="39"/>
+      <x:c r="S56" s="39"/>
+      <x:c r="T56" s="39"/>
+      <x:c r="U56" s="39"/>
+      <x:c r="V56" s="39"/>
+      <x:c r="W56" s="39"/>
+      <x:c r="X56" s="39"/>
+      <x:c r="Y56" s="39"/>
+      <x:c r="Z56" s="39"/>
+      <x:c r="AA56" s="39"/>
+    </x:row>
+    <x:row r="57" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A57" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B57" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C57" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D57" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E57" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F57" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G57" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H57" s="39"/>
+      <x:c r="I57" s="39"/>
+      <x:c r="J57" s="39"/>
+      <x:c r="K57" s="39"/>
+      <x:c r="L57" s="39"/>
+      <x:c r="M57" s="39"/>
+      <x:c r="N57" s="39"/>
+      <x:c r="O57" s="39"/>
+      <x:c r="P57" s="39"/>
+      <x:c r="Q57" s="39"/>
+      <x:c r="R57" s="39"/>
+      <x:c r="S57" s="39"/>
+      <x:c r="T57" s="39"/>
+      <x:c r="U57" s="39"/>
+      <x:c r="V57" s="39"/>
+      <x:c r="W57" s="39"/>
+      <x:c r="X57" s="39"/>
+      <x:c r="Y57" s="39"/>
+      <x:c r="Z57" s="39"/>
+      <x:c r="AA57" s="39"/>
+    </x:row>
+    <x:row r="58" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A58" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B58" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C58" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D58" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E58" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F58" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G58" s="38" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H58" s="39"/>
+      <x:c r="I58" s="39"/>
+      <x:c r="J58" s="39"/>
+      <x:c r="K58" s="39"/>
+      <x:c r="L58" s="39"/>
+      <x:c r="M58" s="39"/>
+      <x:c r="N58" s="39"/>
+      <x:c r="O58" s="39"/>
+      <x:c r="P58" s="39"/>
+      <x:c r="Q58" s="39"/>
+      <x:c r="R58" s="39"/>
+      <x:c r="S58" s="39"/>
+      <x:c r="T58" s="39"/>
+      <x:c r="U58" s="39"/>
+      <x:c r="V58" s="39"/>
+      <x:c r="W58" s="39"/>
+      <x:c r="X58" s="39"/>
+      <x:c r="Y58" s="39"/>
+      <x:c r="Z58" s="39"/>
+      <x:c r="AA58" s="39"/>
+    </x:row>
+    <x:row r="59" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A59" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B59" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C59" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D59" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E59" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F59" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G59" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H59" s="39"/>
+      <x:c r="I59" s="39"/>
+      <x:c r="J59" s="39"/>
+      <x:c r="K59" s="39"/>
+      <x:c r="L59" s="39"/>
+      <x:c r="M59" s="39"/>
+      <x:c r="N59" s="39"/>
+      <x:c r="O59" s="39"/>
+      <x:c r="P59" s="39"/>
+      <x:c r="Q59" s="39"/>
+      <x:c r="R59" s="39"/>
+      <x:c r="S59" s="39"/>
+      <x:c r="T59" s="39"/>
+      <x:c r="U59" s="39"/>
+      <x:c r="V59" s="39"/>
+      <x:c r="W59" s="39"/>
+      <x:c r="X59" s="39"/>
+      <x:c r="Y59" s="39"/>
+      <x:c r="Z59" s="39"/>
+      <x:c r="AA59" s="39"/>
+    </x:row>
+    <x:row r="60" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A60" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B60" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C60" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D60" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E60" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F60" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G60" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H60" s="39"/>
+      <x:c r="I60" s="39"/>
+      <x:c r="J60" s="39"/>
+      <x:c r="K60" s="39"/>
+      <x:c r="L60" s="39"/>
+      <x:c r="M60" s="39"/>
+      <x:c r="N60" s="39"/>
+      <x:c r="O60" s="39"/>
+      <x:c r="P60" s="39"/>
+      <x:c r="Q60" s="39"/>
+      <x:c r="R60" s="39"/>
+      <x:c r="S60" s="39"/>
+      <x:c r="T60" s="39"/>
+      <x:c r="U60" s="39"/>
+      <x:c r="V60" s="39"/>
+      <x:c r="W60" s="39"/>
+      <x:c r="X60" s="39"/>
+      <x:c r="Y60" s="39"/>
+      <x:c r="Z60" s="39"/>
+      <x:c r="AA60" s="39"/>
+    </x:row>
+    <x:row r="61" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A61" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B61" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C61" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D61" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E61" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F61" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G61" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H61" s="39"/>
+      <x:c r="I61" s="39"/>
+      <x:c r="J61" s="39"/>
+      <x:c r="K61" s="39"/>
+      <x:c r="L61" s="39"/>
+      <x:c r="M61" s="39"/>
+      <x:c r="N61" s="39"/>
+      <x:c r="O61" s="39"/>
+      <x:c r="P61" s="39"/>
+      <x:c r="Q61" s="39"/>
+      <x:c r="R61" s="39"/>
+      <x:c r="S61" s="39"/>
+      <x:c r="T61" s="39"/>
+      <x:c r="U61" s="39"/>
+      <x:c r="V61" s="39"/>
+      <x:c r="W61" s="39"/>
+      <x:c r="X61" s="39"/>
+      <x:c r="Y61" s="39"/>
+      <x:c r="Z61" s="39"/>
+      <x:c r="AA61" s="39"/>
+    </x:row>
+    <x:row r="62" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A62" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B62" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C62" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D62" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E62" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F62" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G62" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H62" s="39"/>
+      <x:c r="I62" s="39"/>
+      <x:c r="J62" s="39"/>
+      <x:c r="K62" s="39"/>
+      <x:c r="L62" s="39"/>
+      <x:c r="M62" s="39"/>
+      <x:c r="N62" s="39"/>
+      <x:c r="O62" s="39"/>
+      <x:c r="P62" s="39"/>
+      <x:c r="Q62" s="39"/>
+      <x:c r="R62" s="39"/>
+      <x:c r="S62" s="39"/>
+      <x:c r="T62" s="39"/>
+      <x:c r="U62" s="39"/>
+      <x:c r="V62" s="39"/>
+      <x:c r="W62" s="39"/>
+      <x:c r="X62" s="39"/>
+      <x:c r="Y62" s="39"/>
+      <x:c r="Z62" s="39"/>
+      <x:c r="AA62" s="39"/>
+    </x:row>
+    <x:row r="63" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A63" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B63" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C63" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D63" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E63" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F63" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G63" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H63" s="39"/>
+      <x:c r="I63" s="39"/>
+      <x:c r="J63" s="39"/>
+      <x:c r="K63" s="39"/>
+      <x:c r="L63" s="39"/>
+      <x:c r="M63" s="39"/>
+      <x:c r="N63" s="39"/>
+      <x:c r="O63" s="39"/>
+      <x:c r="P63" s="39"/>
+      <x:c r="Q63" s="39"/>
+      <x:c r="R63" s="39"/>
+      <x:c r="S63" s="39"/>
+      <x:c r="T63" s="39"/>
+      <x:c r="U63" s="39"/>
+      <x:c r="V63" s="39"/>
+      <x:c r="W63" s="39"/>
+      <x:c r="X63" s="39"/>
+      <x:c r="Y63" s="39"/>
+      <x:c r="Z63" s="39"/>
+      <x:c r="AA63" s="39"/>
+    </x:row>
+    <x:row r="64" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A64" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B64" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C64" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D64" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E64" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F64" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G64" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H64" s="39"/>
+      <x:c r="I64" s="39"/>
+      <x:c r="J64" s="39"/>
+      <x:c r="K64" s="39"/>
+      <x:c r="L64" s="39"/>
+      <x:c r="M64" s="39"/>
+      <x:c r="N64" s="39"/>
+      <x:c r="O64" s="39"/>
+      <x:c r="P64" s="39"/>
+      <x:c r="Q64" s="39"/>
+      <x:c r="R64" s="39"/>
+      <x:c r="S64" s="39"/>
+      <x:c r="T64" s="39"/>
+      <x:c r="U64" s="39"/>
+      <x:c r="V64" s="39"/>
+      <x:c r="W64" s="39"/>
+      <x:c r="X64" s="39"/>
+      <x:c r="Y64" s="39"/>
+      <x:c r="Z64" s="39"/>
+      <x:c r="AA64" s="39"/>
+    </x:row>
+    <x:row r="65" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A65" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B65" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C65" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D65" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E65" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F65" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G65" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H65" s="39"/>
+      <x:c r="I65" s="39"/>
+      <x:c r="J65" s="39"/>
+      <x:c r="K65" s="39"/>
+      <x:c r="L65" s="39"/>
+      <x:c r="M65" s="39"/>
+      <x:c r="N65" s="39"/>
+      <x:c r="O65" s="39"/>
+      <x:c r="P65" s="39"/>
+      <x:c r="Q65" s="39"/>
+      <x:c r="R65" s="39"/>
+      <x:c r="S65" s="39"/>
+      <x:c r="T65" s="39"/>
+      <x:c r="U65" s="39"/>
+      <x:c r="V65" s="39"/>
+      <x:c r="W65" s="39"/>
+      <x:c r="X65" s="39"/>
+      <x:c r="Y65" s="39"/>
+      <x:c r="Z65" s="39"/>
+      <x:c r="AA65" s="39"/>
+    </x:row>
+    <x:row r="66" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A66" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B66" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C66" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D66" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E66" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F66" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G66" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H66" s="39"/>
+      <x:c r="I66" s="39"/>
+      <x:c r="J66" s="39"/>
+      <x:c r="K66" s="39"/>
+      <x:c r="L66" s="39"/>
+      <x:c r="M66" s="39"/>
+      <x:c r="N66" s="39"/>
+      <x:c r="O66" s="39"/>
+      <x:c r="P66" s="39"/>
+      <x:c r="Q66" s="39"/>
+      <x:c r="R66" s="39"/>
+      <x:c r="S66" s="39"/>
+      <x:c r="T66" s="39"/>
+      <x:c r="U66" s="39"/>
+      <x:c r="V66" s="39"/>
+      <x:c r="W66" s="39"/>
+      <x:c r="X66" s="39"/>
+      <x:c r="Y66" s="39"/>
+      <x:c r="Z66" s="39"/>
+      <x:c r="AA66" s="39"/>
+    </x:row>
+    <x:row r="67" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A67" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B67" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C67" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D67" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E67" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F67" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G67" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H67" s="39"/>
+      <x:c r="I67" s="39"/>
+      <x:c r="J67" s="39"/>
+      <x:c r="K67" s="39"/>
+      <x:c r="L67" s="39"/>
+      <x:c r="M67" s="39"/>
+      <x:c r="N67" s="39"/>
+      <x:c r="O67" s="39"/>
+      <x:c r="P67" s="39"/>
+      <x:c r="Q67" s="39"/>
+      <x:c r="R67" s="39"/>
+      <x:c r="S67" s="39"/>
+      <x:c r="T67" s="39"/>
+      <x:c r="U67" s="39"/>
+      <x:c r="V67" s="39"/>
+      <x:c r="W67" s="39"/>
+      <x:c r="X67" s="39"/>
+      <x:c r="Y67" s="39"/>
+      <x:c r="Z67" s="39"/>
+      <x:c r="AA67" s="39"/>
+    </x:row>
+    <x:row r="68" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A68" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B68" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C68" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D68" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E68" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F68" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G68" s="38" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H68" s="39"/>
+      <x:c r="I68" s="39"/>
+      <x:c r="J68" s="39"/>
+      <x:c r="K68" s="39"/>
+      <x:c r="L68" s="39"/>
+      <x:c r="M68" s="39"/>
+      <x:c r="N68" s="39"/>
+      <x:c r="O68" s="39"/>
+      <x:c r="P68" s="39"/>
+      <x:c r="Q68" s="39"/>
+      <x:c r="R68" s="39"/>
+      <x:c r="S68" s="39"/>
+      <x:c r="T68" s="39"/>
+      <x:c r="U68" s="39"/>
+      <x:c r="V68" s="39"/>
+      <x:c r="W68" s="39"/>
+      <x:c r="X68" s="39"/>
+      <x:c r="Y68" s="39"/>
+      <x:c r="Z68" s="39"/>
+      <x:c r="AA68" s="39"/>
+    </x:row>
+    <x:row r="69" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A69" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B69" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C69" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D69" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E69" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F69" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G69" s="38" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H69" s="39"/>
+      <x:c r="I69" s="39"/>
+      <x:c r="J69" s="39"/>
+      <x:c r="K69" s="39"/>
+      <x:c r="L69" s="39"/>
+      <x:c r="M69" s="39"/>
+      <x:c r="N69" s="39"/>
+      <x:c r="O69" s="39"/>
+      <x:c r="P69" s="39"/>
+      <x:c r="Q69" s="39"/>
+      <x:c r="R69" s="39"/>
+      <x:c r="S69" s="39"/>
+      <x:c r="T69" s="39"/>
+      <x:c r="U69" s="39"/>
+      <x:c r="V69" s="39"/>
+      <x:c r="W69" s="39"/>
+      <x:c r="X69" s="39"/>
+      <x:c r="Y69" s="39"/>
+      <x:c r="Z69" s="39"/>
+      <x:c r="AA69" s="39"/>
+    </x:row>
+    <x:row r="70" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A70" s="33" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B70" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C70" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D70" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E70" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F70" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G70" s="38" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H70" s="39"/>
+      <x:c r="I70" s="39"/>
+      <x:c r="J70" s="39"/>
+      <x:c r="K70" s="39"/>
+      <x:c r="L70" s="39"/>
+      <x:c r="M70" s="39"/>
+      <x:c r="N70" s="39"/>
+      <x:c r="O70" s="39"/>
+      <x:c r="P70" s="39"/>
+      <x:c r="Q70" s="39"/>
+      <x:c r="R70" s="39"/>
+      <x:c r="S70" s="39"/>
+      <x:c r="T70" s="39"/>
+      <x:c r="U70" s="39"/>
+      <x:c r="V70" s="39"/>
+      <x:c r="W70" s="39"/>
+      <x:c r="X70" s="39"/>
+      <x:c r="Y70" s="39"/>
+      <x:c r="Z70" s="39"/>
+      <x:c r="AA70" s="39"/>
+    </x:row>
+    <x:row r="71" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A71" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B71" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C71" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D71" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E71" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F71" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G71" s="38" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H71" s="39"/>
+      <x:c r="I71" s="39"/>
+      <x:c r="J71" s="39"/>
+      <x:c r="K71" s="39"/>
+      <x:c r="L71" s="39"/>
+      <x:c r="M71" s="39"/>
+      <x:c r="N71" s="39"/>
+      <x:c r="O71" s="39"/>
+      <x:c r="P71" s="39"/>
+      <x:c r="Q71" s="39"/>
+      <x:c r="R71" s="39"/>
+      <x:c r="S71" s="39"/>
+      <x:c r="T71" s="39"/>
+      <x:c r="U71" s="39"/>
+      <x:c r="V71" s="39"/>
+      <x:c r="W71" s="39"/>
+      <x:c r="X71" s="39"/>
+      <x:c r="Y71" s="39"/>
+      <x:c r="Z71" s="39"/>
+      <x:c r="AA71" s="39"/>
+    </x:row>
+    <x:row r="72" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A72" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B72" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C72" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D72" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E72" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F72" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G72" s="38" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H72" s="39"/>
+      <x:c r="I72" s="39"/>
+      <x:c r="J72" s="39"/>
+      <x:c r="K72" s="39"/>
+      <x:c r="L72" s="39"/>
+      <x:c r="M72" s="39"/>
+      <x:c r="N72" s="39"/>
+      <x:c r="O72" s="39"/>
+      <x:c r="P72" s="39"/>
+      <x:c r="Q72" s="39"/>
+      <x:c r="R72" s="39"/>
+      <x:c r="S72" s="39"/>
+      <x:c r="T72" s="39"/>
+      <x:c r="U72" s="39"/>
+      <x:c r="V72" s="39"/>
+      <x:c r="W72" s="39"/>
+      <x:c r="X72" s="39"/>
+      <x:c r="Y72" s="39"/>
+      <x:c r="Z72" s="39"/>
+      <x:c r="AA72" s="39"/>
+    </x:row>
+    <x:row r="73" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A73" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B73" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C73" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D73" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E73" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F73" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G73" s="38" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H73" s="39"/>
+      <x:c r="I73" s="39"/>
+      <x:c r="J73" s="39"/>
+      <x:c r="K73" s="39"/>
+      <x:c r="L73" s="39"/>
+      <x:c r="M73" s="39"/>
+      <x:c r="N73" s="39"/>
+      <x:c r="O73" s="39"/>
+      <x:c r="P73" s="39"/>
+      <x:c r="Q73" s="39"/>
+      <x:c r="R73" s="39"/>
+      <x:c r="S73" s="39"/>
+      <x:c r="T73" s="39"/>
+      <x:c r="U73" s="39"/>
+      <x:c r="V73" s="39"/>
+      <x:c r="W73" s="39"/>
+      <x:c r="X73" s="39"/>
+      <x:c r="Y73" s="39"/>
+      <x:c r="Z73" s="39"/>
+      <x:c r="AA73" s="39"/>
+    </x:row>
+    <x:row r="74" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A74" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B74" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C74" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D74" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E74" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F74" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G74" s="38" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H74" s="39"/>
+      <x:c r="I74" s="39"/>
+      <x:c r="J74" s="39"/>
+      <x:c r="K74" s="39"/>
+      <x:c r="L74" s="39"/>
+      <x:c r="M74" s="39"/>
+      <x:c r="N74" s="39"/>
+      <x:c r="O74" s="39"/>
+      <x:c r="P74" s="39"/>
+      <x:c r="Q74" s="39"/>
+      <x:c r="R74" s="39"/>
+      <x:c r="S74" s="39"/>
+      <x:c r="T74" s="39"/>
+      <x:c r="U74" s="39"/>
+      <x:c r="V74" s="39"/>
+      <x:c r="W74" s="39"/>
+      <x:c r="X74" s="39"/>
+      <x:c r="Y74" s="39"/>
+      <x:c r="Z74" s="39"/>
+      <x:c r="AA74" s="39"/>
+    </x:row>
+    <x:row r="75" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A75" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B75" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C75" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D75" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E75" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F75" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G75" s="38" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H75" s="39"/>
+      <x:c r="I75" s="39"/>
+      <x:c r="J75" s="39"/>
+      <x:c r="K75" s="39"/>
+      <x:c r="L75" s="39"/>
+      <x:c r="M75" s="39"/>
+      <x:c r="N75" s="39"/>
+      <x:c r="O75" s="39"/>
+      <x:c r="P75" s="39"/>
+      <x:c r="Q75" s="39"/>
+      <x:c r="R75" s="39"/>
+      <x:c r="S75" s="39"/>
+      <x:c r="T75" s="39"/>
+      <x:c r="U75" s="39"/>
+      <x:c r="V75" s="39"/>
+      <x:c r="W75" s="39"/>
+      <x:c r="X75" s="39"/>
+      <x:c r="Y75" s="39"/>
+      <x:c r="Z75" s="39"/>
+      <x:c r="AA75" s="39"/>
+    </x:row>
+    <x:row r="76" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A76" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B76" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C76" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D76" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E76" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F76" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G76" s="38" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H76" s="39"/>
+      <x:c r="I76" s="39"/>
+      <x:c r="J76" s="39"/>
+      <x:c r="K76" s="39"/>
+      <x:c r="L76" s="39"/>
+      <x:c r="M76" s="39"/>
+      <x:c r="N76" s="39"/>
+      <x:c r="O76" s="39"/>
+      <x:c r="P76" s="39"/>
+      <x:c r="Q76" s="39"/>
+      <x:c r="R76" s="39"/>
+      <x:c r="S76" s="39"/>
+      <x:c r="T76" s="39"/>
+      <x:c r="U76" s="39"/>
+      <x:c r="V76" s="39"/>
+      <x:c r="W76" s="39"/>
+      <x:c r="X76" s="39"/>
+      <x:c r="Y76" s="39"/>
+      <x:c r="Z76" s="39"/>
+      <x:c r="AA76" s="39"/>
+    </x:row>
+    <x:row r="77" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A77" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B77" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C77" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D77" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E77" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F77" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G77" s="38" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H77" s="39"/>
+      <x:c r="I77" s="39"/>
+      <x:c r="J77" s="39"/>
+      <x:c r="K77" s="39"/>
+      <x:c r="L77" s="39"/>
+      <x:c r="M77" s="39"/>
+      <x:c r="N77" s="39"/>
+      <x:c r="O77" s="39"/>
+      <x:c r="P77" s="39"/>
+      <x:c r="Q77" s="39"/>
+      <x:c r="R77" s="39"/>
+      <x:c r="S77" s="39"/>
+      <x:c r="T77" s="39"/>
+      <x:c r="U77" s="39"/>
+      <x:c r="V77" s="39"/>
+      <x:c r="W77" s="39"/>
+      <x:c r="X77" s="39"/>
+      <x:c r="Y77" s="39"/>
+      <x:c r="Z77" s="39"/>
+      <x:c r="AA77" s="39"/>
+    </x:row>
+    <x:row r="78" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A78" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B78" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C78" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D78" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E78" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F78" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G78" s="38" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H78" s="39"/>
+      <x:c r="I78" s="39"/>
+      <x:c r="J78" s="39"/>
+      <x:c r="K78" s="39"/>
+      <x:c r="L78" s="39"/>
+      <x:c r="M78" s="39"/>
+      <x:c r="N78" s="39"/>
+      <x:c r="O78" s="39"/>
+      <x:c r="P78" s="39"/>
+      <x:c r="Q78" s="39"/>
+      <x:c r="R78" s="39"/>
+      <x:c r="S78" s="39"/>
+      <x:c r="T78" s="39"/>
+      <x:c r="U78" s="39"/>
+      <x:c r="V78" s="39"/>
+      <x:c r="W78" s="39"/>
+      <x:c r="X78" s="39"/>
+      <x:c r="Y78" s="39"/>
+      <x:c r="Z78" s="39"/>
+      <x:c r="AA78" s="39"/>
+    </x:row>
+    <x:row r="79" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A79" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B79" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C79" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D79" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E79" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F79" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G79" s="38" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H79" s="39"/>
+      <x:c r="I79" s="39"/>
+      <x:c r="J79" s="39"/>
+      <x:c r="K79" s="39"/>
+      <x:c r="L79" s="39"/>
+      <x:c r="M79" s="39"/>
+      <x:c r="N79" s="39"/>
+      <x:c r="O79" s="39"/>
+      <x:c r="P79" s="39"/>
+      <x:c r="Q79" s="39"/>
+      <x:c r="R79" s="39"/>
+      <x:c r="S79" s="39"/>
+      <x:c r="T79" s="39"/>
+      <x:c r="U79" s="39"/>
+      <x:c r="V79" s="39"/>
+      <x:c r="W79" s="39"/>
+      <x:c r="X79" s="39"/>
+      <x:c r="Y79" s="39"/>
+      <x:c r="Z79" s="39"/>
+      <x:c r="AA79" s="39"/>
+    </x:row>
+    <x:row r="80" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A80" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B80" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C80" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D80" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E80" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F80" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G80" s="38" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H80" s="39"/>
+      <x:c r="I80" s="39"/>
+      <x:c r="J80" s="39"/>
+      <x:c r="K80" s="39"/>
+      <x:c r="L80" s="39"/>
+      <x:c r="M80" s="39"/>
+      <x:c r="N80" s="39"/>
+      <x:c r="O80" s="39"/>
+      <x:c r="P80" s="39"/>
+      <x:c r="Q80" s="39"/>
+      <x:c r="R80" s="39"/>
+      <x:c r="S80" s="39"/>
+      <x:c r="T80" s="39"/>
+      <x:c r="U80" s="39"/>
+      <x:c r="V80" s="39"/>
+      <x:c r="W80" s="39"/>
+      <x:c r="X80" s="39"/>
+      <x:c r="Y80" s="39"/>
+      <x:c r="Z80" s="39"/>
+      <x:c r="AA80" s="39"/>
+    </x:row>
+    <x:row r="81" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A81" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B81" s="34" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C81" s="35" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D81" s="36" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E81" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F81" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G81" s="38" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H81" s="39"/>
+      <x:c r="I81" s="39"/>
+      <x:c r="J81" s="39"/>
+      <x:c r="K81" s="39"/>
+      <x:c r="L81" s="39"/>
+      <x:c r="M81" s="39"/>
+      <x:c r="N81" s="39"/>
+      <x:c r="O81" s="39"/>
+      <x:c r="P81" s="39"/>
+      <x:c r="Q81" s="39"/>
+      <x:c r="R81" s="39"/>
+      <x:c r="S81" s="39"/>
+      <x:c r="T81" s="39"/>
+      <x:c r="U81" s="39"/>
+      <x:c r="V81" s="39"/>
+      <x:c r="W81" s="39"/>
+      <x:c r="X81" s="39"/>
+      <x:c r="Y81" s="39"/>
+      <x:c r="Z81" s="39"/>
+      <x:c r="AA81" s="39"/>
+    </x:row>
+    <x:row r="82" spans="1:27" ht="15" customHeight="1">
+      <x:c r="A82" s="33"/>
+      <x:c r="B82" s="34"/>
+      <x:c r="C82" s="35"/>
+      <x:c r="D82" s="36"/>
+      <x:c r="E82" s="37"/>
+      <x:c r="F82" s="37"/>
+      <x:c r="G82" s="38"/>
+      <x:c r="H82" s="39"/>
+      <x:c r="I82" s="39"/>
+      <x:c r="J82" s="39"/>
+      <x:c r="K82" s="39"/>
+      <x:c r="L82" s="39"/>
+      <x:c r="M82" s="39"/>
+      <x:c r="N82" s="39"/>
+      <x:c r="O82" s="39"/>
+      <x:c r="P82" s="39"/>
+      <x:c r="Q82" s="39"/>
+      <x:c r="R82" s="39"/>
+      <x:c r="S82" s="39"/>
+      <x:c r="T82" s="39"/>
+      <x:c r="U82" s="39"/>
+      <x:c r="V82" s="39"/>
+      <x:c r="W82" s="39"/>
+      <x:c r="X82" s="39"/>
+      <x:c r="Y82" s="39"/>
+      <x:c r="Z82" s="39"/>
+      <x:c r="AA82" s="39"/>
+    </x:row>
+    <x:row r="83" spans="1:27">
+      <x:c r="A83" s="33"/>
+      <x:c r="B83" s="34"/>
+      <x:c r="C83" s="35"/>
+      <x:c r="D83" s="36"/>
+      <x:c r="E83" s="37"/>
+      <x:c r="F83" s="37"/>
+      <x:c r="G83" s="38"/>
+      <x:c r="H83" s="39"/>
+      <x:c r="I83" s="39"/>
+      <x:c r="J83" s="39"/>
+      <x:c r="K83" s="39"/>
+      <x:c r="L83" s="39"/>
+      <x:c r="M83" s="39"/>
+      <x:c r="N83" s="39"/>
+      <x:c r="O83" s="39"/>
+      <x:c r="P83" s="39"/>
+      <x:c r="Q83" s="39"/>
+      <x:c r="R83" s="39"/>
+      <x:c r="S83" s="39"/>
+      <x:c r="T83" s="39"/>
+      <x:c r="U83" s="39"/>
+      <x:c r="V83" s="39"/>
+      <x:c r="W83" s="39"/>
+      <x:c r="X83" s="39"/>
+      <x:c r="Y83" s="39"/>
+      <x:c r="Z83" s="39"/>
+      <x:c r="AA83" s="39"/>
+    </x:row>
+    <x:row r="84" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A84" s="17"/>
+      <x:c r="B84" s="18"/>
+      <x:c r="C84" s="19"/>
+      <x:c r="D84" s="20"/>
+      <x:c r="E84" s="19"/>
+      <x:c r="F84" s="19"/>
+      <x:c r="G84" s="21"/>
+    </x:row>
+    <x:row r="85" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A85" s="8"/>
+      <x:c r="B85" s="8"/>
+      <x:c r="C85" s="8"/>
+      <x:c r="D85" s="9"/>
+      <x:c r="E85" s="8"/>
+      <x:c r="F85" s="8"/>
+      <x:c r="G85" s="22"/>
+    </x:row>
+    <x:row r="86" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="A86" s="39"/>
+      <x:c r="B86" s="39"/>
+      <x:c r="C86" s="39"/>
+      <x:c r="D86" s="40"/>
+      <x:c r="E86" s="39"/>
+      <x:c r="F86" s="39"/>
+      <x:c r="G86" s="23"/>
+    </x:row>
+    <x:row r="87" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A87" s="24" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B54" s="24">
+      <x:c r="B87" s="24">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C54" s="25" t="s">
+      <x:c r="C87" s="25" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D54" s="26"/>
-      <x:c r="E54" s="27"/>
-      <x:c r="F54" s="56"/>
-      <x:c r="G54" s="23"/>
-    </x:row>
-    <x:row r="55" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A55" s="24" t="s">
+      <x:c r="D87" s="26"/>
+      <x:c r="E87" s="27"/>
+      <x:c r="F87" s="56"/>
+      <x:c r="G87" s="23"/>
+    </x:row>
+    <x:row r="88" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A88" s="24" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B55" s="24">
+      <x:c r="B88" s="24">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C55" s="25" t="s">
+      <x:c r="C88" s="25" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D55" s="28"/>
-      <x:c r="E55" s="27"/>
-      <x:c r="F55" s="56"/>
-      <x:c r="G55" s="23"/>
-    </x:row>
-    <x:row r="56" spans="1:27" ht="18.75" customHeight="1">
-      <x:c r="A56" s="24" t="s">
+      <x:c r="D88" s="28"/>
+      <x:c r="E88" s="27"/>
+      <x:c r="F88" s="56"/>
+      <x:c r="G88" s="23"/>
+    </x:row>
+    <x:row r="89" spans="1:27" ht="18.75" customHeight="1">
+      <x:c r="A89" s="24" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B56" s="24">
+      <x:c r="B89" s="24">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C56" s="29" t="s">
+      <x:c r="C89" s="29" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D56" s="30"/>
-      <x:c r="E56" s="27"/>
-      <x:c r="F56" s="56"/>
-      <x:c r="G56" s="23"/>
-    </x:row>
-    <x:row r="57" spans="1:27" ht="112.15" customHeight="1">
-      <x:c r="A57" s="24" t="s">
+      <x:c r="D89" s="30"/>
+      <x:c r="E89" s="27"/>
+      <x:c r="F89" s="56"/>
+      <x:c r="G89" s="23"/>
+    </x:row>
+    <x:row r="90" spans="1:27" ht="112.15" customHeight="1">
+      <x:c r="A90" s="24" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B57" s="24">
+      <x:c r="B90" s="24">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C57" s="29" t="s">
+      <x:c r="C90" s="29" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D57" s="30"/>
-      <x:c r="E57" s="27"/>
-      <x:c r="F57" s="56"/>
-      <x:c r="G57" s="23"/>
-    </x:row>
-    <x:row r="58" spans="1:27" ht="37.9" customHeight="1">
-      <x:c r="A58" s="57"/>
-      <x:c r="B58" s="24"/>
-      <x:c r="C58" s="29" t="s">
+      <x:c r="D90" s="30"/>
+      <x:c r="E90" s="27"/>
+      <x:c r="F90" s="56"/>
+      <x:c r="G90" s="23"/>
+    </x:row>
+    <x:row r="91" spans="1:27" ht="37.9" customHeight="1">
+      <x:c r="A91" s="57"/>
+      <x:c r="B91" s="24"/>
+      <x:c r="C91" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D58" s="30"/>
-      <x:c r="E58" s="27"/>
-      <x:c r="F58" s="56"/>
-      <x:c r="G58" s="23"/>
-    </x:row>
-    <x:row r="59" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D59" s="41"/>
-      <x:c r="G59" s="23"/>
-    </x:row>
-    <x:row r="60" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D60" s="41"/>
-      <x:c r="G60" s="23"/>
-    </x:row>
-    <x:row r="61" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D61" s="41"/>
-      <x:c r="G61" s="23"/>
-    </x:row>
-    <x:row r="62" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D62" s="41"/>
-      <x:c r="G62" s="23"/>
-    </x:row>
-    <x:row r="63" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D63" s="41"/>
-      <x:c r="G63" s="23"/>
-    </x:row>
-    <x:row r="64" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D64" s="41"/>
-      <x:c r="G64" s="23"/>
-    </x:row>
-    <x:row r="65" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D65" s="41"/>
-      <x:c r="G65" s="23"/>
-    </x:row>
-    <x:row r="66" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D66" s="41"/>
-      <x:c r="G66" s="23"/>
-    </x:row>
-    <x:row r="67" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D67" s="41"/>
-      <x:c r="G67" s="23"/>
-    </x:row>
-    <x:row r="68" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D68" s="41"/>
-      <x:c r="G68" s="23"/>
-    </x:row>
-    <x:row r="69" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D69" s="41"/>
-      <x:c r="G69" s="23"/>
-    </x:row>
-    <x:row r="70" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D70" s="41"/>
-      <x:c r="G70" s="23"/>
-    </x:row>
-    <x:row r="71" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D71" s="41"/>
-      <x:c r="G71" s="23"/>
-    </x:row>
-    <x:row r="72" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D72" s="41"/>
-      <x:c r="G72" s="23"/>
-    </x:row>
-    <x:row r="73" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D73" s="41"/>
-      <x:c r="G73" s="23"/>
-    </x:row>
-    <x:row r="74" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D74" s="41"/>
-      <x:c r="G74" s="23"/>
-    </x:row>
-    <x:row r="75" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D75" s="41"/>
-      <x:c r="G75" s="23"/>
-    </x:row>
-    <x:row r="76" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D76" s="41"/>
-      <x:c r="G76" s="23"/>
-    </x:row>
-    <x:row r="77" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D77" s="41"/>
-      <x:c r="G77" s="23"/>
-    </x:row>
-    <x:row r="78" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D78" s="41"/>
-      <x:c r="G78" s="23"/>
-    </x:row>
-    <x:row r="79" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D79" s="41"/>
-      <x:c r="G79" s="23"/>
-    </x:row>
-    <x:row r="80" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D80" s="41"/>
-      <x:c r="G80" s="23"/>
-    </x:row>
-    <x:row r="81" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D81" s="41"/>
-      <x:c r="G81" s="23"/>
-    </x:row>
-    <x:row r="82" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D82" s="41"/>
-      <x:c r="G82" s="23"/>
-    </x:row>
-    <x:row r="83" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D83" s="41"/>
-      <x:c r="G83" s="23"/>
-    </x:row>
-    <x:row r="84" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D84" s="41"/>
-      <x:c r="G84" s="23"/>
-    </x:row>
-    <x:row r="85" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D85" s="41"/>
-      <x:c r="G85" s="23"/>
-    </x:row>
-    <x:row r="86" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D86" s="41"/>
-      <x:c r="G86" s="23"/>
-    </x:row>
-    <x:row r="87" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D87" s="41"/>
-      <x:c r="G87" s="23"/>
-    </x:row>
-    <x:row r="88" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D88" s="41"/>
-      <x:c r="G88" s="23"/>
-    </x:row>
-    <x:row r="89" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D89" s="41"/>
-      <x:c r="G89" s="23"/>
-    </x:row>
-    <x:row r="90" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D90" s="41"/>
-      <x:c r="G90" s="23"/>
-    </x:row>
-    <x:row r="91" spans="1:27" ht="15.75" customHeight="1">
-      <x:c r="D91" s="41"/>
+      <x:c r="D91" s="30"/>
+      <x:c r="E91" s="27"/>
+      <x:c r="F91" s="56"/>
       <x:c r="G91" s="23"/>
     </x:row>
     <x:row r="92" spans="1:27" ht="15.75" customHeight="1">
@@ -3905,102 +5234,135 @@
     </x:row>
     <x:row r="259" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D259" s="41"/>
+      <x:c r="G259" s="23"/>
     </x:row>
     <x:row r="260" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D260" s="41"/>
+      <x:c r="G260" s="23"/>
     </x:row>
     <x:row r="261" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D261" s="41"/>
+      <x:c r="G261" s="23"/>
     </x:row>
     <x:row r="262" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D262" s="41"/>
+      <x:c r="G262" s="23"/>
     </x:row>
     <x:row r="263" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D263" s="41"/>
+      <x:c r="G263" s="23"/>
     </x:row>
     <x:row r="264" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D264" s="41"/>
+      <x:c r="G264" s="23"/>
     </x:row>
     <x:row r="265" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D265" s="41"/>
+      <x:c r="G265" s="23"/>
     </x:row>
     <x:row r="266" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D266" s="41"/>
+      <x:c r="G266" s="23"/>
     </x:row>
     <x:row r="267" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D267" s="41"/>
+      <x:c r="G267" s="23"/>
     </x:row>
     <x:row r="268" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D268" s="41"/>
+      <x:c r="G268" s="23"/>
     </x:row>
     <x:row r="269" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D269" s="41"/>
+      <x:c r="G269" s="23"/>
     </x:row>
     <x:row r="270" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D270" s="41"/>
+      <x:c r="G270" s="23"/>
     </x:row>
     <x:row r="271" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D271" s="41"/>
+      <x:c r="G271" s="23"/>
     </x:row>
     <x:row r="272" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D272" s="41"/>
+      <x:c r="G272" s="23"/>
     </x:row>
     <x:row r="273" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D273" s="41"/>
+      <x:c r="G273" s="23"/>
     </x:row>
     <x:row r="274" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D274" s="41"/>
+      <x:c r="G274" s="23"/>
     </x:row>
     <x:row r="275" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D275" s="41"/>
+      <x:c r="G275" s="23"/>
     </x:row>
     <x:row r="276" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D276" s="41"/>
+      <x:c r="G276" s="23"/>
     </x:row>
     <x:row r="277" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D277" s="41"/>
+      <x:c r="G277" s="23"/>
     </x:row>
     <x:row r="278" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D278" s="41"/>
+      <x:c r="G278" s="23"/>
     </x:row>
     <x:row r="279" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D279" s="41"/>
+      <x:c r="G279" s="23"/>
     </x:row>
     <x:row r="280" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D280" s="41"/>
+      <x:c r="G280" s="23"/>
     </x:row>
     <x:row r="281" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D281" s="41"/>
+      <x:c r="G281" s="23"/>
     </x:row>
     <x:row r="282" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D282" s="41"/>
+      <x:c r="G282" s="23"/>
     </x:row>
     <x:row r="283" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D283" s="41"/>
+      <x:c r="G283" s="23"/>
     </x:row>
     <x:row r="284" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D284" s="41"/>
+      <x:c r="G284" s="23"/>
     </x:row>
     <x:row r="285" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D285" s="41"/>
+      <x:c r="G285" s="23"/>
     </x:row>
     <x:row r="286" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D286" s="41"/>
+      <x:c r="G286" s="23"/>
     </x:row>
     <x:row r="287" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D287" s="41"/>
+      <x:c r="G287" s="23"/>
     </x:row>
     <x:row r="288" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D288" s="41"/>
+      <x:c r="G288" s="23"/>
     </x:row>
     <x:row r="289" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D289" s="41"/>
+      <x:c r="G289" s="23"/>
     </x:row>
     <x:row r="290" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D290" s="41"/>
+      <x:c r="G290" s="23"/>
     </x:row>
     <x:row r="291" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D291" s="41"/>
+      <x:c r="G291" s="23"/>
     </x:row>
     <x:row r="292" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D292" s="41"/>
@@ -5930,6 +7292,105 @@
     </x:row>
     <x:row r="934" spans="1:27" ht="15.75" customHeight="1">
       <x:c r="D934" s="41"/>
+    </x:row>
+    <x:row r="935" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D935" s="41"/>
+    </x:row>
+    <x:row r="936" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D936" s="41"/>
+    </x:row>
+    <x:row r="937" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D937" s="41"/>
+    </x:row>
+    <x:row r="938" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D938" s="41"/>
+    </x:row>
+    <x:row r="939" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D939" s="41"/>
+    </x:row>
+    <x:row r="940" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D940" s="41"/>
+    </x:row>
+    <x:row r="941" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D941" s="41"/>
+    </x:row>
+    <x:row r="942" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D942" s="41"/>
+    </x:row>
+    <x:row r="943" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D943" s="41"/>
+    </x:row>
+    <x:row r="944" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D944" s="41"/>
+    </x:row>
+    <x:row r="945" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D945" s="41"/>
+    </x:row>
+    <x:row r="946" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D946" s="41"/>
+    </x:row>
+    <x:row r="947" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D947" s="41"/>
+    </x:row>
+    <x:row r="948" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D948" s="41"/>
+    </x:row>
+    <x:row r="949" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D949" s="41"/>
+    </x:row>
+    <x:row r="950" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D950" s="41"/>
+    </x:row>
+    <x:row r="951" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D951" s="41"/>
+    </x:row>
+    <x:row r="952" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D952" s="41"/>
+    </x:row>
+    <x:row r="953" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D953" s="41"/>
+    </x:row>
+    <x:row r="954" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D954" s="41"/>
+    </x:row>
+    <x:row r="955" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D955" s="41"/>
+    </x:row>
+    <x:row r="956" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D956" s="41"/>
+    </x:row>
+    <x:row r="957" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D957" s="41"/>
+    </x:row>
+    <x:row r="958" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D958" s="41"/>
+    </x:row>
+    <x:row r="959" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D959" s="41"/>
+    </x:row>
+    <x:row r="960" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D960" s="41"/>
+    </x:row>
+    <x:row r="961" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D961" s="41"/>
+    </x:row>
+    <x:row r="962" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D962" s="41"/>
+    </x:row>
+    <x:row r="963" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D963" s="41"/>
+    </x:row>
+    <x:row r="964" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D964" s="41"/>
+    </x:row>
+    <x:row r="965" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D965" s="41"/>
+    </x:row>
+    <x:row r="966" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D966" s="41"/>
+    </x:row>
+    <x:row r="967" spans="1:27" ht="15.75" customHeight="1">
+      <x:c r="D967" s="41"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -5939,7 +7400,7 @@
     <x:mergeCell ref="B3:F3"/>
     <x:mergeCell ref="B4:F4"/>
   </x:mergeCells>
-  <x:conditionalFormatting sqref="D7:D50">
+  <x:conditionalFormatting sqref="D7:D83">
     <x:cfRule type="expression" dxfId="0" priority="1" operator="equal">
       <x:formula>H7=1</x:formula>
     </x:cfRule>
